--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_8_25.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_8_25.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1450381.548198044</v>
+        <v>1442528.808175779</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>8078410.590648619</v>
+        <v>8854286.535708254</v>
       </c>
     </row>
     <row r="8">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10407336.15125946</v>
+        <v>10349120.81117323</v>
       </c>
     </row>
     <row r="11">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>46.54563323080736</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,13 +704,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -719,13 +719,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>139.1005047045661</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -829,13 +829,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>112.2638403784904</v>
+        <v>52.61100976783534</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,13 +862,13 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>12.9169039459368</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.73967344227894</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,19 +941,19 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481168</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U5" t="n">
-        <v>142.340739386737</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -987,13 +987,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>136.5310119231965</v>
+        <v>136.0669836643703</v>
       </c>
       <c r="H6" t="n">
-        <v>104.3883541553076</v>
+        <v>99.90681807664345</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>45.44580843958667</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,16 +1020,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.7112368822933</v>
+        <v>20.90078060183509</v>
       </c>
       <c r="S6" t="n">
-        <v>156.5912426325231</v>
+        <v>147.9721212459916</v>
       </c>
       <c r="T6" t="n">
-        <v>196.8897623984489</v>
+        <v>195.0194028815133</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8879277888686</v>
+        <v>225.8573996139459</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1063,7 +1063,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1072,10 +1072,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1096,16 +1096,16 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491429</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>24.96762110967108</v>
+        <v>205.3658819001186</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>172.7934262031729</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1133,10 +1133,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>26.60194861199784</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1145,10 +1145,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>12.9169039459368</v>
+        <v>411.4371413535349</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>211.0729244887122</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1181,7 +1181,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>120.9327970537822</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1193,7 +1193,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1224,13 +1224,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>136.0669836643703</v>
+        <v>135.275240877313</v>
       </c>
       <c r="H9" t="n">
-        <v>99.90681807664345</v>
+        <v>92.26024958059013</v>
       </c>
       <c r="I9" t="n">
-        <v>45.44580843958667</v>
+        <v>18.18624318344744</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,16 +1257,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>20.90078060183509</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>147.9721212459916</v>
+        <v>133.2658462320107</v>
       </c>
       <c r="T9" t="n">
-        <v>195.0194028815133</v>
+        <v>191.828123840699</v>
       </c>
       <c r="U9" t="n">
-        <v>225.8573996139459</v>
+        <v>225.8053112726921</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -1288,28 +1288,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>131.6418197605292</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.9207765545704</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>152.7120966692326</v>
+        <v>146.8105729959039</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>103.3051669679944</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,22 +1336,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>99.32764374521088</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>193.7981713870603</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.5367941620016</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>108.1059198678489</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1370,10 +1370,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1385,7 +1385,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,16 +1418,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>209.6931219609845</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>238.7809396517843</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1531,22 +1531,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>106.5867442799591</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>74.75769145492379</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1588,13 +1588,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1616,10 +1616,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1655,19 +1655,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>105.0023863360938</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>168.1158122680963</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1704,7 +1704,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247723</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1783,7 +1783,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983809</v>
+        <v>13.02719212039627</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1825,7 +1825,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>203.1977700471494</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1892,13 +1892,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>109.1877617881758</v>
+        <v>109.187761788176</v>
       </c>
       <c r="T17" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9951719589016</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -2002,10 +2002,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>20.28913162716338</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
         <v>189.7690253314419</v>
@@ -2056,19 +2056,19 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>105.4176419617084</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2135,7 +2135,7 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9951719589016</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2178,7 +2178,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247734</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734093895</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2242,7 +2242,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2257,7 +2257,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,13 +2287,13 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
-        <v>189.7690253314419</v>
+        <v>178.2408095595322</v>
       </c>
       <c r="T22" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>13.89072837997169</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2476,10 +2476,10 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>106.5867442799594</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -2521,25 +2521,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>219.5489492761692</v>
+        <v>28.87956703897726</v>
       </c>
       <c r="U25" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>20.90550583938412</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2767,10 +2767,10 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>266.0283717037998</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2779,7 +2779,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2947,16 +2947,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>132.380031039078</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -2968,7 +2968,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,10 +2995,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
         <v>219.5489492761692</v>
@@ -3007,7 +3007,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>140.1397342516925</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -3016,7 +3016,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3193,10 +3193,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>119.5976297100114</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>166.0258082590282</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -3247,7 +3247,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>203.1977700471494</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3269,7 +3269,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206816</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>109.1877617881769</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T35" t="n">
         <v>203.9179701396201</v>
@@ -3363,7 +3363,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I36" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824775</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3433,16 +3433,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>82.70057996958205</v>
       </c>
       <c r="H37" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3469,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>18.69174667297949</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3521,7 +3521,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292636</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881751</v>
       </c>
       <c r="T38" t="n">
         <v>203.9179701396201</v>
@@ -3658,10 +3658,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>74.75769145492352</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
-        <v>219.5489492761692</v>
+        <v>215.9919723025125</v>
       </c>
       <c r="U40" t="n">
         <v>286.2118382056129</v>
@@ -3740,10 +3740,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -3752,13 +3752,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>91.44574675721796</v>
+        <v>229.7965692041367</v>
       </c>
       <c r="H41" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,22 +3788,22 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -3837,7 +3837,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I42" t="n">
-        <v>18.8172186824772</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3898,19 +3898,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3943,25 +3943,25 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>173.626889274476</v>
       </c>
       <c r="T43" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
-        <v>254.8171635132319</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -3992,7 +3992,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H44" t="n">
-        <v>168.1158122680975</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4037,13 +4037,13 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>205.1127822067381</v>
       </c>
     </row>
     <row r="45">
@@ -4138,7 +4138,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -4147,10 +4147,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>144.7550149143208</v>
+        <v>123.9334245782914</v>
       </c>
       <c r="I46" t="n">
         <v>96.35242040983809</v>
@@ -4192,10 +4192,10 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>203.1977700471494</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4304,37 +4304,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1231.905553626649</v>
+        <v>1780.41262192169</v>
       </c>
       <c r="C2" t="n">
-        <v>1231.905553626649</v>
+        <v>1780.41262192169</v>
       </c>
       <c r="D2" t="n">
-        <v>1231.905553626649</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="E2" t="n">
-        <v>846.1173010284044</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F2" t="n">
-        <v>799.1015098861748</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G2" t="n">
-        <v>381.1377017843616</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2520.971603332393</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T2" t="n">
-        <v>2302.336936304455</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U2" t="n">
-        <v>2302.336936304455</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V2" t="n">
-        <v>1971.274048960885</v>
+        <v>2311.057514205145</v>
       </c>
       <c r="W2" t="n">
-        <v>1618.50539369077</v>
+        <v>2170.551953897502</v>
       </c>
       <c r="X2" t="n">
-        <v>1618.50539369077</v>
+        <v>2170.551953897502</v>
       </c>
       <c r="Y2" t="n">
-        <v>1618.50539369077</v>
+        <v>1780.41262192169</v>
       </c>
     </row>
     <row r="3">
@@ -4383,55 +4383,55 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4446,10 +4446,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,25 +4462,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>336.2769833124031</v>
+        <v>243.4143268306408</v>
       </c>
       <c r="C4" t="n">
-        <v>167.3408003844962</v>
+        <v>243.4143268306408</v>
       </c>
       <c r="D4" t="n">
-        <v>167.3408003844962</v>
+        <v>243.4143268306408</v>
       </c>
       <c r="E4" t="n">
-        <v>167.3408003844962</v>
+        <v>243.4143268306408</v>
       </c>
       <c r="F4" t="n">
-        <v>167.3408003844962</v>
+        <v>243.4143268306408</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I4" t="n">
         <v>53.94298182036445</v>
@@ -4510,28 +4510,28 @@
         <v>698.7120650600564</v>
       </c>
       <c r="R4" t="n">
-        <v>550.5654064942404</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S4" t="n">
-        <v>336.2769833124031</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="T4" t="n">
-        <v>336.2769833124031</v>
+        <v>471.4038777286581</v>
       </c>
       <c r="U4" t="n">
-        <v>336.2769833124031</v>
+        <v>471.4038777286581</v>
       </c>
       <c r="V4" t="n">
-        <v>336.2769833124031</v>
+        <v>471.4038777286581</v>
       </c>
       <c r="W4" t="n">
-        <v>336.2769833124031</v>
+        <v>471.4038777286581</v>
       </c>
       <c r="X4" t="n">
-        <v>336.2769833124031</v>
+        <v>243.4143268306408</v>
       </c>
       <c r="Y4" t="n">
-        <v>336.2769833124031</v>
+        <v>243.4143268306408</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1595.875667274027</v>
+        <v>1196.626364472714</v>
       </c>
       <c r="C5" t="n">
-        <v>1595.875667274027</v>
+        <v>1196.626364472714</v>
       </c>
       <c r="D5" t="n">
-        <v>1595.875667274027</v>
+        <v>838.3606658659633</v>
       </c>
       <c r="E5" t="n">
-        <v>1210.087414675782</v>
+        <v>838.3606658659633</v>
       </c>
       <c r="F5" t="n">
-        <v>799.1015098861748</v>
+        <v>427.3747610763557</v>
       </c>
       <c r="G5" t="n">
-        <v>381.1377017843616</v>
+        <v>414.3273833531872</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036447</v>
+        <v>96.10426812569671</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533143</v>
+        <v>75.17723181374774</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733131</v>
+        <v>478.6443448337932</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224081</v>
+        <v>1031.457603079992</v>
       </c>
       <c r="M5" t="n">
-        <v>1362.238747280444</v>
+        <v>1218.1570159054</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1845.464683965246</v>
       </c>
       <c r="O5" t="n">
-        <v>2238.84331964269</v>
+        <v>2232.849924657332</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791253</v>
+        <v>2662.164970996627</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2540.93405351505</v>
       </c>
       <c r="T5" t="n">
-        <v>2423.485734520779</v>
+        <v>2326.134191782761</v>
       </c>
       <c r="U5" t="n">
-        <v>2279.707209887712</v>
+        <v>2326.134191782761</v>
       </c>
       <c r="V5" t="n">
-        <v>1948.644322544141</v>
+        <v>2326.134191782761</v>
       </c>
       <c r="W5" t="n">
-        <v>1595.875667274027</v>
+        <v>1973.365536512647</v>
       </c>
       <c r="X5" t="n">
-        <v>1595.875667274027</v>
+        <v>1973.365536512647</v>
       </c>
       <c r="Y5" t="n">
-        <v>1595.875667274027</v>
+        <v>1583.226204536835</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>967.3646662469702</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>792.9116369658432</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>643.9772273045919</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>484.7397722991365</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>338.2052143260214</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>200.7638166852433</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673424</v>
+        <v>99.84783883004795</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>121.5508014837215</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>625.9123413498401</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1266.457690816945</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1640.147320825857</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.815593035061</v>
+        <v>2189.58332957858</v>
       </c>
       <c r="P6" t="n">
-        <v>2568.06040664989</v>
+        <v>2613.551098059417</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2636.288039261394</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2615.176139663581</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2465.709350526216</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2268.720054686303</v>
       </c>
       <c r="U6" t="n">
-        <v>2061.714576167582</v>
+        <v>2040.581267197469</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1805.429158965726</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207638</v>
+        <v>1551.191802237525</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002105</v>
+        <v>1343.340302031992</v>
       </c>
       <c r="Y6" t="n">
-        <v>1156.713312237151</v>
+        <v>1135.580003267038</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>235.9284171545819</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="C7" t="n">
-        <v>235.9284171545819</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="D7" t="n">
-        <v>235.9284171545819</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="E7" t="n">
-        <v>235.9284171545819</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F7" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G7" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H7" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K7" t="n">
-        <v>110.2451748866326</v>
+        <v>154.9909114159743</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>339.8239063167927</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>545.0935070360306</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>750.9168718721348</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>925.0117672607337</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064346</v>
+        <v>1050.459343859349</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600565</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="R7" t="n">
-        <v>550.5654064942405</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="S7" t="n">
-        <v>525.3455871915424</v>
+        <v>846.4373785321145</v>
       </c>
       <c r="T7" t="n">
-        <v>525.3455871915424</v>
+        <v>671.8985641854752</v>
       </c>
       <c r="U7" t="n">
-        <v>525.3455871915424</v>
+        <v>671.8985641854752</v>
       </c>
       <c r="V7" t="n">
-        <v>525.3455871915424</v>
+        <v>671.8985641854752</v>
       </c>
       <c r="W7" t="n">
-        <v>235.9284171545819</v>
+        <v>382.4813941485145</v>
       </c>
       <c r="X7" t="n">
-        <v>235.9284171545819</v>
+        <v>382.4813941485145</v>
       </c>
       <c r="Y7" t="n">
-        <v>235.9284171545819</v>
+        <v>382.4813941485145</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>863.1126181035252</v>
+        <v>1093.726932915272</v>
       </c>
       <c r="C8" t="n">
-        <v>836.241962939891</v>
+        <v>1093.726932915272</v>
       </c>
       <c r="D8" t="n">
-        <v>477.9762643331405</v>
+        <v>1093.726932915272</v>
       </c>
       <c r="E8" t="n">
-        <v>477.9762643331405</v>
+        <v>1093.726932915272</v>
       </c>
       <c r="F8" t="n">
-        <v>66.99035954353295</v>
+        <v>682.7410281256646</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036447</v>
+        <v>267.1479560513869</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J8" t="n">
-        <v>242.5828808341008</v>
+        <v>199.514302137349</v>
       </c>
       <c r="K8" t="n">
-        <v>637.4491018485708</v>
+        <v>468.4264940665504</v>
       </c>
       <c r="L8" t="n">
-        <v>1190.26236009477</v>
+        <v>838.9376088552597</v>
       </c>
       <c r="M8" t="n">
-        <v>1376.961772920178</v>
+        <v>1282.872051350724</v>
       </c>
       <c r="N8" t="n">
-        <v>2004.269440980024</v>
+        <v>1738.603625623768</v>
       </c>
       <c r="O8" t="n">
-        <v>2551.430645747102</v>
+        <v>2155.602766936376</v>
       </c>
       <c r="P8" t="n">
-        <v>2662.164970996628</v>
+        <v>2477.000885571627</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2670.184741116959</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018223</v>
+        <v>2574.994750559856</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018223</v>
+        <v>2574.994750559856</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018223</v>
+        <v>2574.994750559856</v>
       </c>
       <c r="V8" t="n">
-        <v>2366.086203674653</v>
+        <v>2243.931863216285</v>
       </c>
       <c r="W8" t="n">
-        <v>2013.317548404538</v>
+        <v>2243.931863216285</v>
       </c>
       <c r="X8" t="n">
-        <v>1639.851790143459</v>
+        <v>1870.466104955206</v>
       </c>
       <c r="Y8" t="n">
-        <v>1249.712458167647</v>
+        <v>1480.326772979394</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>967.3646662469702</v>
+        <v>931.3062050962127</v>
       </c>
       <c r="C9" t="n">
-        <v>792.9116369658432</v>
+        <v>756.8531758150857</v>
       </c>
       <c r="D9" t="n">
-        <v>643.9772273045919</v>
+        <v>607.9187661538344</v>
       </c>
       <c r="E9" t="n">
-        <v>484.7397722991365</v>
+        <v>448.681311148379</v>
       </c>
       <c r="F9" t="n">
-        <v>338.2052143260215</v>
+        <v>302.146753175264</v>
       </c>
       <c r="G9" t="n">
-        <v>200.7638166852434</v>
+        <v>165.5050957234327</v>
       </c>
       <c r="H9" t="n">
-        <v>99.84783883004798</v>
+        <v>72.31292442990731</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036447</v>
+        <v>246.6565409677913</v>
       </c>
       <c r="K9" t="n">
-        <v>383.3713861261743</v>
+        <v>537.8115956207105</v>
       </c>
       <c r="L9" t="n">
-        <v>887.7329259922928</v>
+        <v>845.2309936650822</v>
       </c>
       <c r="M9" t="n">
-        <v>1528.278275459397</v>
+        <v>1223.331799318883</v>
       </c>
       <c r="N9" t="n">
-        <v>1822.094502051329</v>
+        <v>1625.848453140027</v>
       </c>
       <c r="O9" t="n">
-        <v>1981.606814720089</v>
+        <v>1971.852758176341</v>
       </c>
       <c r="P9" t="n">
-        <v>2405.574583200926</v>
+        <v>2230.218651003075</v>
       </c>
       <c r="Q9" t="n">
-        <v>2636.288039261394</v>
+        <v>2560.986726597623</v>
       </c>
       <c r="R9" t="n">
-        <v>2615.176139663581</v>
+        <v>2560.986726597623</v>
       </c>
       <c r="S9" t="n">
-        <v>2465.709350526216</v>
+        <v>2426.374760706703</v>
       </c>
       <c r="T9" t="n">
-        <v>2268.720054686303</v>
+        <v>2232.608979049431</v>
       </c>
       <c r="U9" t="n">
-        <v>2040.581267197469</v>
+        <v>2004.522806046712</v>
       </c>
       <c r="V9" t="n">
-        <v>1805.429158965726</v>
+        <v>1769.370697814969</v>
       </c>
       <c r="W9" t="n">
-        <v>1551.191802237525</v>
+        <v>1515.133341086767</v>
       </c>
       <c r="X9" t="n">
-        <v>1343.340302031992</v>
+        <v>1307.281840881235</v>
       </c>
       <c r="Y9" t="n">
-        <v>1135.580003267038</v>
+        <v>1099.521542116281</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>376.804469925216</v>
+        <v>623.4344199103597</v>
       </c>
       <c r="C10" t="n">
-        <v>376.804469925216</v>
+        <v>454.4982369824528</v>
       </c>
       <c r="D10" t="n">
-        <v>376.804469925216</v>
+        <v>454.4982369824528</v>
       </c>
       <c r="E10" t="n">
-        <v>376.804469925216</v>
+        <v>306.5851434000597</v>
       </c>
       <c r="F10" t="n">
-        <v>376.804469925216</v>
+        <v>306.5851434000597</v>
       </c>
       <c r="G10" t="n">
-        <v>208.1976249205994</v>
+        <v>306.5851434000597</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036447</v>
+        <v>158.2916353233891</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036447</v>
+        <v>82.88339090485937</v>
       </c>
       <c r="K10" t="n">
-        <v>154.9909114159743</v>
+        <v>260.2782098866545</v>
       </c>
       <c r="L10" t="n">
-        <v>339.8239063167927</v>
+        <v>542.8089378877603</v>
       </c>
       <c r="M10" t="n">
-        <v>545.0935070360306</v>
+        <v>851.0870999282808</v>
       </c>
       <c r="N10" t="n">
-        <v>750.9168718721348</v>
+        <v>1157.469712732903</v>
       </c>
       <c r="O10" t="n">
-        <v>925.0117672607337</v>
+        <v>1424.447349606354</v>
       </c>
       <c r="P10" t="n">
-        <v>1050.459343859349</v>
+        <v>1629.372157534688</v>
       </c>
       <c r="Q10" t="n">
-        <v>1053.877663279709</v>
+        <v>1687.816392302165</v>
       </c>
       <c r="R10" t="n">
-        <v>1053.877663279709</v>
+        <v>1587.485439024174</v>
       </c>
       <c r="S10" t="n">
-        <v>1053.877663279709</v>
+        <v>1391.729710350376</v>
       </c>
       <c r="T10" t="n">
-        <v>1053.877663279709</v>
+        <v>1168.965271802899</v>
       </c>
       <c r="U10" t="n">
-        <v>1053.877663279709</v>
+        <v>1059.767372946486</v>
       </c>
       <c r="V10" t="n">
-        <v>799.1931750738223</v>
+        <v>805.0828847405994</v>
       </c>
       <c r="W10" t="n">
-        <v>509.7760050368617</v>
+        <v>805.0828847405994</v>
       </c>
       <c r="X10" t="n">
-        <v>509.7760050368617</v>
+        <v>805.0828847405994</v>
       </c>
       <c r="Y10" t="n">
-        <v>509.7760050368617</v>
+        <v>805.0828847405994</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1647.321240915451</v>
+        <v>1934.208022973022</v>
       </c>
       <c r="C11" t="n">
-        <v>1278.358723975039</v>
+        <v>1934.208022973022</v>
       </c>
       <c r="D11" t="n">
-        <v>1278.358723975039</v>
+        <v>1575.942324366272</v>
       </c>
       <c r="E11" t="n">
-        <v>892.5704713767946</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="F11" t="n">
-        <v>481.5845665871869</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G11" t="n">
-        <v>66.51211643218343</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H11" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912083</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O11" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R11" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S11" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T11" t="n">
-        <v>3009.337405520489</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U11" t="n">
-        <v>2797.526171216464</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V11" t="n">
-        <v>2797.526171216464</v>
+        <v>3084.412953274035</v>
       </c>
       <c r="W11" t="n">
-        <v>2797.526171216464</v>
+        <v>3084.412953274035</v>
       </c>
       <c r="X11" t="n">
-        <v>2424.060412955384</v>
+        <v>2710.947195012955</v>
       </c>
       <c r="Y11" t="n">
-        <v>2033.921080979572</v>
+        <v>2320.807863037144</v>
       </c>
     </row>
     <row r="12">
@@ -5109,16 +5109,16 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G12" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I12" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J12" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K12" t="n">
         <v>398.4535849031479</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>142.0249360836216</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="C13" t="n">
-        <v>142.0249360836216</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="D13" t="n">
-        <v>142.0249360836216</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E13" t="n">
-        <v>142.0249360836216</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F13" t="n">
-        <v>142.0249360836216</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G13" t="n">
-        <v>142.0249360836216</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H13" t="n">
-        <v>142.0249360836216</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J13" t="n">
         <v>111.634748879119</v>
@@ -5236,13 +5236,13 @@
         <v>880.2242361621296</v>
       </c>
       <c r="W13" t="n">
-        <v>590.8070661251691</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="X13" t="n">
-        <v>362.8175152271517</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="Y13" t="n">
-        <v>142.0249360836216</v>
+        <v>880.2242361621296</v>
       </c>
     </row>
     <row r="14">
@@ -5252,31 +5252,31 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2005.586939522201</v>
+        <v>1179.52858457759</v>
       </c>
       <c r="C14" t="n">
-        <v>1636.624422581789</v>
+        <v>810.5660676371781</v>
       </c>
       <c r="D14" t="n">
-        <v>1278.358723975039</v>
+        <v>452.3003690304276</v>
       </c>
       <c r="E14" t="n">
-        <v>892.5704713767946</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F14" t="n">
-        <v>481.5845665871869</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G14" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H14" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I14" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K14" t="n">
         <v>589.2106210810553</v>
@@ -5285,7 +5285,7 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M14" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N14" t="n">
         <v>2120.555556060171</v>
@@ -5300,28 +5300,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R14" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S14" t="n">
-        <v>3325.60582160917</v>
+        <v>3219.542805108066</v>
       </c>
       <c r="T14" t="n">
-        <v>3325.60582160917</v>
+        <v>3013.565057492288</v>
       </c>
       <c r="U14" t="n">
-        <v>3325.60582160917</v>
+        <v>3013.565057492288</v>
       </c>
       <c r="V14" t="n">
-        <v>3325.60582160917</v>
+        <v>2682.502170148718</v>
       </c>
       <c r="W14" t="n">
-        <v>3155.791869823214</v>
+        <v>2329.733514878603</v>
       </c>
       <c r="X14" t="n">
-        <v>2782.326111562134</v>
+        <v>1956.267756617523</v>
       </c>
       <c r="Y14" t="n">
-        <v>2392.186779586323</v>
+        <v>1566.128424641711</v>
       </c>
     </row>
     <row r="15">
@@ -5331,37 +5331,37 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D15" t="n">
-        <v>618.1564155387301</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G15" t="n">
-        <v>176.0213023927777</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064525</v>
+        <v>85.51940803064537</v>
       </c>
       <c r="I15" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J15" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K15" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L15" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M15" t="n">
         <v>1212.428070438129</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1091.613680441807</v>
+        <v>1007.446783179745</v>
       </c>
       <c r="C16" t="n">
-        <v>922.6774975139006</v>
+        <v>838.5106002518381</v>
       </c>
       <c r="D16" t="n">
-        <v>772.5608581015648</v>
+        <v>688.3939608395024</v>
       </c>
       <c r="E16" t="n">
-        <v>624.6477645191717</v>
+        <v>540.4808672571093</v>
       </c>
       <c r="F16" t="n">
-        <v>477.7578170212613</v>
+        <v>393.5909197591989</v>
       </c>
       <c r="G16" t="n">
-        <v>310.0549803959802</v>
+        <v>225.8880831339178</v>
       </c>
       <c r="H16" t="n">
-        <v>163.837793613838</v>
+        <v>79.67089635177561</v>
       </c>
       <c r="I16" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J16" t="n">
         <v>111.634748879119</v>
@@ -5473,13 +5473,13 @@
         <v>1927.294548088493</v>
       </c>
       <c r="W16" t="n">
-        <v>1722.044275313594</v>
+        <v>1637.877378051532</v>
       </c>
       <c r="X16" t="n">
-        <v>1494.054724415577</v>
+        <v>1409.887827153515</v>
       </c>
       <c r="Y16" t="n">
-        <v>1273.262145272047</v>
+        <v>1189.095248009985</v>
       </c>
     </row>
     <row r="17">
@@ -5513,28 +5513,28 @@
         <v>95.56103444839441</v>
       </c>
       <c r="J17" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K17" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L17" t="n">
-        <v>1482.778354750621</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M17" t="n">
-        <v>2461.32865758045</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N17" t="n">
-        <v>3441.080929807096</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O17" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P17" t="n">
-        <v>4470.748294107236</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q17" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R17" t="n">
         <v>4778.05172241972</v>
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3154.542034367488</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C18" t="n">
-        <v>2980.089005086361</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D18" t="n">
-        <v>2831.15459542511</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E18" t="n">
-        <v>2671.917140419654</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F18" t="n">
-        <v>2525.382582446538</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G18" t="n">
-        <v>2389.019482279157</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H18" t="n">
-        <v>2298.517587917025</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I18" t="n">
-        <v>2279.510296318563</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J18" t="n">
-        <v>2373.18756580918</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K18" t="n">
-        <v>2611.451764789528</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L18" t="n">
-        <v>2978.149925102193</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M18" t="n">
-        <v>3425.426250324509</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N18" t="n">
-        <v>3898.949293878964</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O18" t="n">
-        <v>4309.910573297018</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P18" t="n">
-        <v>4620.41016477312</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q18" t="n">
-        <v>4778.05172241972</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R18" t="n">
-        <v>4777.907369012236</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S18" t="n">
-        <v>4648.469482505716</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T18" t="n">
-        <v>4455.826482183571</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U18" t="n">
-        <v>4227.758635317987</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V18" t="n">
-        <v>3992.606527086245</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W18" t="n">
-        <v>3738.369170358043</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X18" t="n">
-        <v>3530.51767015251</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y18" t="n">
-        <v>3322.757371387556</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="19">
@@ -5647,10 +5647,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>844.1500838984424</v>
+        <v>654.7198286198654</v>
       </c>
       <c r="C19" t="n">
-        <v>675.2139009705355</v>
+        <v>654.7198286198654</v>
       </c>
       <c r="D19" t="n">
         <v>654.7198286198654</v>
@@ -5695,28 +5695,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R19" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S19" t="n">
-        <v>1764.65758193153</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T19" t="n">
-        <v>1542.890966501056</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U19" t="n">
-        <v>1253.788099626699</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="V19" t="n">
-        <v>1253.788099626699</v>
+        <v>1346.578042630596</v>
       </c>
       <c r="W19" t="n">
-        <v>1253.788099626699</v>
+        <v>1057.160872593635</v>
       </c>
       <c r="X19" t="n">
-        <v>1025.798548728682</v>
+        <v>1057.160872593635</v>
       </c>
       <c r="Y19" t="n">
-        <v>1025.798548728682</v>
+        <v>836.3682934501052</v>
       </c>
     </row>
     <row r="20">
@@ -5726,7 +5726,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C20" t="n">
         <v>2005.253839749764</v>
@@ -5735,7 +5735,7 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E20" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F20" t="n">
         <v>850.213983755162</v>
@@ -5786,16 +5786,16 @@
         <v>4208.252829604874</v>
       </c>
       <c r="V20" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W20" t="n">
         <v>3524.421286991189</v>
       </c>
       <c r="X20" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y20" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="21">
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>264.4972173763013</v>
+        <v>511.9395339702917</v>
       </c>
       <c r="C22" t="n">
-        <v>95.56103444839441</v>
+        <v>343.0033510423848</v>
       </c>
       <c r="D22" t="n">
-        <v>95.56103444839441</v>
+        <v>192.886711630049</v>
       </c>
       <c r="E22" t="n">
-        <v>95.56103444839441</v>
+        <v>192.886711630049</v>
       </c>
       <c r="F22" t="n">
-        <v>95.56103444839441</v>
+        <v>192.886711630049</v>
       </c>
       <c r="G22" t="n">
-        <v>95.56103444839441</v>
+        <v>192.886711630049</v>
       </c>
       <c r="H22" t="n">
-        <v>95.56103444839441</v>
+        <v>192.886711630049</v>
       </c>
       <c r="I22" t="n">
         <v>95.56103444839441</v>
@@ -5935,25 +5935,25 @@
         <v>1866.513008862232</v>
       </c>
       <c r="S22" t="n">
-        <v>1674.827124689058</v>
+        <v>1686.471787084927</v>
       </c>
       <c r="T22" t="n">
-        <v>1453.060509258584</v>
+        <v>1686.471787084927</v>
       </c>
       <c r="U22" t="n">
-        <v>1439.029470490936</v>
+        <v>1686.471787084927</v>
       </c>
       <c r="V22" t="n">
-        <v>1184.344982285049</v>
+        <v>1431.78729887904</v>
       </c>
       <c r="W22" t="n">
-        <v>894.9278122480885</v>
+        <v>1142.370128842079</v>
       </c>
       <c r="X22" t="n">
-        <v>666.9382613500711</v>
+        <v>914.3805779440615</v>
       </c>
       <c r="Y22" t="n">
-        <v>446.145682206541</v>
+        <v>693.5879988005314</v>
       </c>
     </row>
     <row r="23">
@@ -5966,49 +5966,49 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C23" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D23" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E23" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F23" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551617</v>
       </c>
       <c r="G23" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001583</v>
       </c>
       <c r="H23" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089255</v>
       </c>
       <c r="I23" t="n">
         <v>95.56103444839441</v>
       </c>
       <c r="J23" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K23" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L23" t="n">
-        <v>1482.778354750621</v>
+        <v>1905.50671493659</v>
       </c>
       <c r="M23" t="n">
-        <v>2461.32865758045</v>
+        <v>2439.038619608515</v>
       </c>
       <c r="N23" t="n">
-        <v>3441.080929807096</v>
+        <v>2985.817436667297</v>
       </c>
       <c r="O23" t="n">
-        <v>4010.914672075804</v>
+        <v>3865.782086996752</v>
       </c>
       <c r="P23" t="n">
-        <v>4405.689038432983</v>
+        <v>4260.55645335393</v>
       </c>
       <c r="Q23" t="n">
-        <v>4653.975400188665</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R23" t="n">
         <v>4778.05172241972</v>
@@ -6020,19 +6020,19 @@
         <v>4461.783306331037</v>
       </c>
       <c r="U23" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V23" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W23" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X23" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y23" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="24">
@@ -6121,10 +6121,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>909.2731541783409</v>
+        <v>1120.662598458018</v>
       </c>
       <c r="C25" t="n">
-        <v>909.2731541783409</v>
+        <v>951.7264155301116</v>
       </c>
       <c r="D25" t="n">
         <v>801.6097761177758</v>
@@ -6169,28 +6169,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R25" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S25" t="n">
-        <v>1674.827124689058</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T25" t="n">
-        <v>1453.060509258584</v>
+        <v>1927.172186267353</v>
       </c>
       <c r="U25" t="n">
-        <v>1163.957642384228</v>
+        <v>1638.069319392996</v>
       </c>
       <c r="V25" t="n">
-        <v>909.2731541783409</v>
+        <v>1638.069319392996</v>
       </c>
       <c r="W25" t="n">
-        <v>909.2731541783409</v>
+        <v>1348.652149356036</v>
       </c>
       <c r="X25" t="n">
-        <v>909.2731541783409</v>
+        <v>1120.662598458018</v>
       </c>
       <c r="Y25" t="n">
-        <v>909.2731541783409</v>
+        <v>1120.662598458018</v>
       </c>
     </row>
     <row r="26">
@@ -6224,28 +6224,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J26" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K26" t="n">
-        <v>618.2595390972663</v>
+        <v>1070.832524924162</v>
       </c>
       <c r="L26" t="n">
-        <v>1482.778354750621</v>
+        <v>1521.86673817257</v>
       </c>
       <c r="M26" t="n">
-        <v>2461.32865758045</v>
+        <v>2055.398642844495</v>
       </c>
       <c r="N26" t="n">
-        <v>3441.080929807096</v>
+        <v>2602.177459903277</v>
       </c>
       <c r="O26" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P26" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q26" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R26" t="n">
         <v>4778.051722419721</v>
@@ -6306,10 +6306,10 @@
         <v>189.2383039390118</v>
       </c>
       <c r="K27" t="n">
-        <v>427.5025029193589</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L27" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M27" t="n">
         <v>1241.47698845434</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>680.9693001177193</v>
+        <v>264.4972173763014</v>
       </c>
       <c r="C28" t="n">
-        <v>512.0331171898124</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D28" t="n">
-        <v>361.9164777774766</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E28" t="n">
-        <v>214.0033841950835</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F28" t="n">
-        <v>214.0033841950835</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G28" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H28" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I28" t="n">
         <v>95.56103444839442</v>
@@ -6415,19 +6415,19 @@
         <v>1453.060509258584</v>
       </c>
       <c r="U28" t="n">
-        <v>1453.060509258584</v>
+        <v>1184.344982285049</v>
       </c>
       <c r="V28" t="n">
-        <v>1198.376021052697</v>
+        <v>1184.344982285049</v>
       </c>
       <c r="W28" t="n">
-        <v>908.9588510157366</v>
+        <v>894.9278122480886</v>
       </c>
       <c r="X28" t="n">
-        <v>680.9693001177193</v>
+        <v>666.9382613500712</v>
       </c>
       <c r="Y28" t="n">
-        <v>680.9693001177193</v>
+        <v>446.1456822065411</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2374.216356690174</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C29" t="n">
-        <v>2005.253839749762</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D29" t="n">
-        <v>1646.988141143012</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E29" t="n">
-        <v>1261.199888544768</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F29" t="n">
-        <v>850.2139837551604</v>
+        <v>850.2139837551625</v>
       </c>
       <c r="G29" t="n">
-        <v>435.1415336001573</v>
+        <v>435.1415336001586</v>
       </c>
       <c r="H29" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I29" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J29" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K29" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L29" t="n">
-        <v>1237.706702364128</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M29" t="n">
-        <v>2216.257005193956</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N29" t="n">
-        <v>3196.009277420603</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O29" t="n">
-        <v>4075.973927750058</v>
+        <v>3517.878731871643</v>
       </c>
       <c r="P29" t="n">
-        <v>4470.748294107236</v>
+        <v>4231.233819318589</v>
       </c>
       <c r="Q29" t="n">
-        <v>4719.034655862918</v>
+        <v>4689.712021827577</v>
       </c>
       <c r="R29" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S29" t="n">
-        <v>4667.761053946814</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T29" t="n">
-        <v>4461.783306331035</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U29" t="n">
-        <v>4208.252829604872</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V29" t="n">
-        <v>3877.189942261301</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W29" t="n">
-        <v>3524.421286991187</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X29" t="n">
-        <v>3150.955528730107</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y29" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="30">
@@ -6516,28 +6516,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C30" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D30" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E30" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F30" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G30" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H30" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I30" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J30" t="n">
         <v>189.2383039390118</v>
@@ -6573,7 +6573,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U30" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V30" t="n">
         <v>1808.657265216076</v>
@@ -6582,10 +6582,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X30" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y30" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="31">
@@ -6595,28 +6595,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1009.141030763746</v>
+        <v>801.6097761177758</v>
       </c>
       <c r="C31" t="n">
-        <v>840.2048478358396</v>
+        <v>801.6097761177758</v>
       </c>
       <c r="D31" t="n">
-        <v>690.0882084235038</v>
+        <v>801.6097761177758</v>
       </c>
       <c r="E31" t="n">
-        <v>556.371005353728</v>
+        <v>653.6966825353827</v>
       </c>
       <c r="F31" t="n">
-        <v>409.4810578558177</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="G31" t="n">
-        <v>241.7782212305366</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="H31" t="n">
-        <v>95.56103444839441</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I31" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J31" t="n">
         <v>140.68366689533</v>
@@ -6643,28 +6643,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R31" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S31" t="n">
-        <v>1956.343466104704</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T31" t="n">
-        <v>1734.57685067423</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U31" t="n">
-        <v>1445.473983799873</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V31" t="n">
-        <v>1190.789495593986</v>
+        <v>1022.402355261306</v>
       </c>
       <c r="W31" t="n">
-        <v>1190.789495593986</v>
+        <v>1022.402355261306</v>
       </c>
       <c r="X31" t="n">
-        <v>1190.789495593986</v>
+        <v>1022.402355261306</v>
       </c>
       <c r="Y31" t="n">
-        <v>1190.789495593986</v>
+        <v>801.6097761177758</v>
       </c>
     </row>
     <row r="32">
@@ -6674,49 +6674,49 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2374.216356690174</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C32" t="n">
-        <v>2005.253839749762</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D32" t="n">
-        <v>1646.988141143012</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E32" t="n">
-        <v>1261.199888544768</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F32" t="n">
-        <v>850.2139837551604</v>
+        <v>850.2139837551617</v>
       </c>
       <c r="G32" t="n">
-        <v>435.1415336001573</v>
+        <v>435.1415336001583</v>
       </c>
       <c r="H32" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089255</v>
       </c>
       <c r="I32" t="n">
         <v>95.56103444839441</v>
       </c>
       <c r="J32" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K32" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L32" t="n">
-        <v>1237.706702364128</v>
+        <v>1971.087962216427</v>
       </c>
       <c r="M32" t="n">
-        <v>2216.257005193956</v>
+        <v>2504.619866888352</v>
       </c>
       <c r="N32" t="n">
-        <v>3196.009277420603</v>
+        <v>3051.398683947134</v>
       </c>
       <c r="O32" t="n">
-        <v>4075.973927750058</v>
+        <v>3554.371154826471</v>
       </c>
       <c r="P32" t="n">
-        <v>4470.748294107236</v>
+        <v>4260.55645335393</v>
       </c>
       <c r="Q32" t="n">
         <v>4719.034655862918</v>
@@ -6725,22 +6725,22 @@
         <v>4778.05172241972</v>
       </c>
       <c r="S32" t="n">
-        <v>4667.761053946814</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T32" t="n">
-        <v>4461.783306331035</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U32" t="n">
-        <v>4208.252829604872</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V32" t="n">
-        <v>3877.189942261301</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W32" t="n">
-        <v>3524.421286991187</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X32" t="n">
-        <v>3150.955528730107</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y32" t="n">
         <v>2760.816196754296</v>
@@ -6780,10 +6780,10 @@
         <v>189.2383039390118</v>
       </c>
       <c r="K33" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L33" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M33" t="n">
         <v>1241.47698845434</v>
@@ -6832,16 +6832,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1120.662598458018</v>
+        <v>946.665243953484</v>
       </c>
       <c r="C34" t="n">
-        <v>951.7264155301116</v>
+        <v>777.7290610255772</v>
       </c>
       <c r="D34" t="n">
-        <v>801.6097761177758</v>
+        <v>627.6124216132414</v>
       </c>
       <c r="E34" t="n">
-        <v>653.6966825353827</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="F34" t="n">
         <v>506.8067350374723</v>
@@ -6880,28 +6880,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R34" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S34" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="T34" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="U34" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="V34" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="W34" t="n">
-        <v>1751.093193329805</v>
+        <v>1577.095838825271</v>
       </c>
       <c r="X34" t="n">
-        <v>1523.103642431788</v>
+        <v>1349.106287927254</v>
       </c>
       <c r="Y34" t="n">
-        <v>1302.311063288258</v>
+        <v>1128.313708783724</v>
       </c>
     </row>
     <row r="35">
@@ -6911,10 +6911,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C35" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D35" t="n">
         <v>1646.988141143014</v>
@@ -6926,61 +6926,61 @@
         <v>850.213983755162</v>
       </c>
       <c r="G35" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H35" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089256</v>
       </c>
       <c r="I35" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839438</v>
       </c>
       <c r="J35" t="n">
         <v>284.4401654074198</v>
       </c>
       <c r="K35" t="n">
-        <v>939.1634975427194</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L35" t="n">
-        <v>1803.682313196074</v>
+        <v>1237.706702364127</v>
       </c>
       <c r="M35" t="n">
-        <v>2337.214217867999</v>
+        <v>2216.257005193955</v>
       </c>
       <c r="N35" t="n">
-        <v>2883.993034926781</v>
+        <v>3196.009277420602</v>
       </c>
       <c r="O35" t="n">
-        <v>3547.201365906985</v>
+        <v>4075.973927750057</v>
       </c>
       <c r="P35" t="n">
-        <v>4260.556453353931</v>
+        <v>4470.748294107235</v>
       </c>
       <c r="Q35" t="n">
-        <v>4719.034655862919</v>
+        <v>4719.034655862917</v>
       </c>
       <c r="R35" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.051722419719</v>
       </c>
       <c r="S35" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946814</v>
       </c>
       <c r="T35" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331036</v>
       </c>
       <c r="U35" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V35" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W35" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X35" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y35" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="36">
@@ -6990,13 +6990,13 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973196</v>
       </c>
       <c r="C36" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161926</v>
       </c>
       <c r="D36" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549414</v>
       </c>
       <c r="E36" t="n">
         <v>487.9678785494859</v>
@@ -7005,19 +7005,19 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G36" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H36" t="n">
         <v>114.5683260468565</v>
       </c>
       <c r="I36" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839438</v>
       </c>
       <c r="J36" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K36" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L36" t="n">
         <v>794.2006632320242</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>708.7441371531723</v>
+        <v>1036.495701195952</v>
       </c>
       <c r="C37" t="n">
-        <v>539.8079542252655</v>
+        <v>867.5595182680447</v>
       </c>
       <c r="D37" t="n">
-        <v>389.6913148129298</v>
+        <v>717.442878855709</v>
       </c>
       <c r="E37" t="n">
-        <v>241.7782212305366</v>
+        <v>569.5297852733158</v>
       </c>
       <c r="F37" t="n">
-        <v>241.7782212305366</v>
+        <v>422.6398377754055</v>
       </c>
       <c r="G37" t="n">
-        <v>241.7782212305366</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="H37" t="n">
-        <v>95.56103444839442</v>
+        <v>192.886711630049</v>
       </c>
       <c r="I37" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839438</v>
       </c>
       <c r="J37" t="n">
-        <v>140.68366689533</v>
+        <v>140.6836668953255</v>
       </c>
       <c r="K37" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442018</v>
       </c>
       <c r="L37" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482926979</v>
       </c>
       <c r="M37" t="n">
-        <v>1005.387693892251</v>
+        <v>1005.387693892247</v>
       </c>
       <c r="N37" t="n">
-        <v>1346.796070598116</v>
+        <v>1346.796070598112</v>
       </c>
       <c r="O37" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518525</v>
       </c>
       <c r="P37" t="n">
-        <v>1878.733169952189</v>
+        <v>1878.733169952184</v>
       </c>
       <c r="Q37" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104699</v>
       </c>
       <c r="R37" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104699</v>
       </c>
       <c r="S37" t="n">
-        <v>1674.827124689058</v>
+        <v>1956.343466104699</v>
       </c>
       <c r="T37" t="n">
-        <v>1453.060509258584</v>
+        <v>1956.343466104699</v>
       </c>
       <c r="U37" t="n">
-        <v>1163.957642384228</v>
+        <v>1956.343466104699</v>
       </c>
       <c r="V37" t="n">
-        <v>909.2731541783409</v>
+        <v>1956.343466104699</v>
       </c>
       <c r="W37" t="n">
-        <v>890.3926019834121</v>
+        <v>1666.926296067739</v>
       </c>
       <c r="X37" t="n">
-        <v>890.3926019834121</v>
+        <v>1438.936745169721</v>
       </c>
       <c r="Y37" t="n">
-        <v>890.3926019834121</v>
+        <v>1218.144166026191</v>
       </c>
     </row>
     <row r="38">
@@ -7151,67 +7151,67 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C38" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D38" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E38" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F38" t="n">
-        <v>850.2139837551624</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G38" t="n">
-        <v>435.1415336001589</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H38" t="n">
-        <v>137.5579332089261</v>
+        <v>137.5579332089256</v>
       </c>
       <c r="I38" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839438</v>
       </c>
       <c r="J38" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K38" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563072</v>
       </c>
       <c r="L38" t="n">
-        <v>1482.778354750621</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M38" t="n">
-        <v>2461.32865758045</v>
+        <v>2536.15366264131</v>
       </c>
       <c r="N38" t="n">
-        <v>3441.080929807096</v>
+        <v>3082.932479700092</v>
       </c>
       <c r="O38" t="n">
-        <v>4075.973927750058</v>
+        <v>3692.333950986036</v>
       </c>
       <c r="P38" t="n">
-        <v>4470.748294107237</v>
+        <v>4405.689038432982</v>
       </c>
       <c r="Q38" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188664</v>
       </c>
       <c r="R38" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.051722419719</v>
       </c>
       <c r="S38" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T38" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U38" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V38" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W38" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X38" t="n">
         <v>3150.95552873011</v>
@@ -7227,37 +7227,37 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C39" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D39" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E39" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F39" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G39" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H39" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I39" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839438</v>
       </c>
       <c r="J39" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K39" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L39" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M39" t="n">
         <v>1241.47698845434</v>
@@ -7284,7 +7284,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U39" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V39" t="n">
         <v>1808.657265216076</v>
@@ -7293,10 +7293,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X39" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y39" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>2917.269290763412</v>
+        <v>264.4972173763013</v>
       </c>
       <c r="C40" t="n">
-        <v>2917.269290763412</v>
+        <v>95.56103444839438</v>
       </c>
       <c r="D40" t="n">
-        <v>2917.269290763412</v>
+        <v>95.56103444839438</v>
       </c>
       <c r="E40" t="n">
-        <v>2917.269290763412</v>
+        <v>95.56103444839438</v>
       </c>
       <c r="F40" t="n">
-        <v>2917.269290763412</v>
+        <v>95.56103444839438</v>
       </c>
       <c r="G40" t="n">
-        <v>2917.269290763412</v>
+        <v>95.56103444839438</v>
       </c>
       <c r="H40" t="n">
-        <v>2917.269290763412</v>
+        <v>95.56103444839438</v>
       </c>
       <c r="I40" t="n">
-        <v>2917.269290763412</v>
+        <v>95.56103444839438</v>
       </c>
       <c r="J40" t="n">
-        <v>2962.391923210348</v>
+        <v>140.6836668953299</v>
       </c>
       <c r="K40" t="n">
-        <v>3166.379106159224</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L40" t="n">
-        <v>3482.93890460772</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M40" t="n">
-        <v>3827.095950207269</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N40" t="n">
-        <v>4168.504326913134</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O40" t="n">
-        <v>4467.833925833547</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P40" t="n">
-        <v>4700.441426267206</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q40" t="n">
-        <v>4778.051722419721</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R40" t="n">
-        <v>4688.221265177249</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S40" t="n">
-        <v>4496.535381004075</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T40" t="n">
-        <v>4274.768765573601</v>
+        <v>1546.483872535053</v>
       </c>
       <c r="U40" t="n">
-        <v>3985.665898699244</v>
+        <v>1257.381005660696</v>
       </c>
       <c r="V40" t="n">
-        <v>3730.981410493358</v>
+        <v>1002.696517454809</v>
       </c>
       <c r="W40" t="n">
-        <v>3441.564240456397</v>
+        <v>713.2793474178487</v>
       </c>
       <c r="X40" t="n">
-        <v>3213.57468955838</v>
+        <v>485.2897965198314</v>
       </c>
       <c r="Y40" t="n">
-        <v>2992.78211041485</v>
+        <v>264.4972173763013</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1295.236214140706</v>
+        <v>1822.632236038042</v>
       </c>
       <c r="C41" t="n">
-        <v>1295.236214140706</v>
+        <v>1453.669719097631</v>
       </c>
       <c r="D41" t="n">
-        <v>1295.236214140706</v>
+        <v>1095.40402049088</v>
       </c>
       <c r="E41" t="n">
-        <v>909.4479615424621</v>
+        <v>709.6157678926361</v>
       </c>
       <c r="F41" t="n">
-        <v>498.4620567528545</v>
+        <v>298.6298631030285</v>
       </c>
       <c r="G41" t="n">
-        <v>406.0926155839475</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H41" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I41" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J41" t="n">
         <v>255.3912473912089</v>
       </c>
       <c r="K41" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L41" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M41" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N41" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O41" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P41" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q41" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R41" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S41" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T41" t="n">
-        <v>3009.337405520489</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U41" t="n">
-        <v>2755.806928794325</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="V41" t="n">
-        <v>2424.744041450754</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="W41" t="n">
-        <v>2071.97538618064</v>
+        <v>2972.837166339056</v>
       </c>
       <c r="X41" t="n">
-        <v>2071.97538618064</v>
+        <v>2599.371408077976</v>
       </c>
       <c r="Y41" t="n">
-        <v>1681.836054204828</v>
+        <v>2209.232076102164</v>
       </c>
     </row>
     <row r="42">
@@ -7464,31 +7464,31 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C42" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D42" t="n">
-        <v>618.1564155387301</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E42" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F42" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G42" t="n">
-        <v>176.0213023927777</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H42" t="n">
-        <v>85.51940803064525</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I42" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J42" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K42" t="n">
         <v>398.4535849031479</v>
@@ -7521,7 +7521,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U42" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V42" t="n">
         <v>1779.608347199865</v>
@@ -7530,10 +7530,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X42" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y42" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="43">
@@ -7543,28 +7543,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>701.1808689801002</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="C43" t="n">
-        <v>532.2446860521933</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="D43" t="n">
-        <v>382.1280466398576</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="E43" t="n">
-        <v>234.2149530574645</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="F43" t="n">
-        <v>234.2149530574645</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G43" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H43" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I43" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J43" t="n">
         <v>111.634748879119</v>
@@ -7591,28 +7591,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R43" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S43" t="n">
-        <v>1837.464090846021</v>
+        <v>1751.913851851648</v>
       </c>
       <c r="T43" t="n">
-        <v>1615.697475415547</v>
+        <v>1530.147236421175</v>
       </c>
       <c r="U43" t="n">
-        <v>1358.306401159757</v>
+        <v>1241.044369546818</v>
       </c>
       <c r="V43" t="n">
-        <v>1103.62191295387</v>
+        <v>986.3598813409312</v>
       </c>
       <c r="W43" t="n">
-        <v>1103.62191295387</v>
+        <v>696.9427113039706</v>
       </c>
       <c r="X43" t="n">
-        <v>1103.62191295387</v>
+        <v>468.9531604059532</v>
       </c>
       <c r="Y43" t="n">
-        <v>882.8293338103399</v>
+        <v>248.1605812624231</v>
       </c>
     </row>
     <row r="44">
@@ -7622,22 +7622,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2175.400891308158</v>
+        <v>2005.586939522201</v>
       </c>
       <c r="C44" t="n">
-        <v>1806.438374367746</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="D44" t="n">
-        <v>1448.172675760996</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E44" t="n">
-        <v>1062.384423162752</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F44" t="n">
-        <v>651.398518373144</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G44" t="n">
-        <v>236.3260682181405</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H44" t="n">
         <v>66.51211643218343</v>
@@ -7685,13 +7685,13 @@
         <v>3325.605821609171</v>
       </c>
       <c r="W44" t="n">
-        <v>3325.605821609171</v>
+        <v>2972.837166339057</v>
       </c>
       <c r="X44" t="n">
-        <v>2952.140063348092</v>
+        <v>2599.371408077977</v>
       </c>
       <c r="Y44" t="n">
-        <v>2562.00073137228</v>
+        <v>2392.186779586323</v>
       </c>
     </row>
     <row r="45">
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1091.613680441807</v>
+        <v>752.7622949738579</v>
       </c>
       <c r="C46" t="n">
-        <v>922.6774975139006</v>
+        <v>583.826112045951</v>
       </c>
       <c r="D46" t="n">
-        <v>772.5608581015648</v>
+        <v>583.826112045951</v>
       </c>
       <c r="E46" t="n">
-        <v>624.6477645191717</v>
+        <v>435.9130184635579</v>
       </c>
       <c r="F46" t="n">
-        <v>477.7578170212613</v>
+        <v>289.0230709656475</v>
       </c>
       <c r="G46" t="n">
-        <v>310.0549803959803</v>
+        <v>289.0230709656475</v>
       </c>
       <c r="H46" t="n">
         <v>163.8377936138381</v>
@@ -7840,16 +7840,16 @@
         <v>1927.294548088493</v>
       </c>
       <c r="V46" t="n">
-        <v>1927.294548088493</v>
+        <v>1672.610059882606</v>
       </c>
       <c r="W46" t="n">
-        <v>1722.044275313594</v>
+        <v>1383.192889845645</v>
       </c>
       <c r="X46" t="n">
-        <v>1494.054724415577</v>
+        <v>1155.203338947628</v>
       </c>
       <c r="Y46" t="n">
-        <v>1273.262145272047</v>
+        <v>934.4107598040977</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747073</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8213,7 +8213,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>324.1454125711647</v>
@@ -8222,19 +8222,19 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M5" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O5" t="n">
-        <v>380.8001812627454</v>
+        <v>219.4103185607338</v>
       </c>
       <c r="P5" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q5" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>65.71641987298243</v>
@@ -8292,10 +8292,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270191</v>
+        <v>6.233205181928369</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8304,7 +8304,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>479.3423743435536</v>
+        <v>176.8008973295432</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>166.658803395178</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8450,22 +8450,22 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>315.4576428685632</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
@@ -8474,7 +8474,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8529,31 +8529,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>6.233205181928369</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>97.95619053890982</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>96.12069185784512</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>45.52166981132082</v>
+        <v>17.26494649393209</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -9161,31 +9161,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>133.2530576400246</v>
+        <v>344.7025836476829</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9635,31 +9635,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L23" t="n">
-        <v>417.6612145504504</v>
+        <v>351.4175304294027</v>
       </c>
       <c r="M23" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>67.53663776704173</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9872,31 +9872,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>288.0478149561032</v>
       </c>
       <c r="L26" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>133.2530576400255</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10109,31 +10109,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
-        <v>170.1140909277297</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>29.61882225792094</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10346,28 +10346,28 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
-        <v>170.1140909277297</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>314.5564971416979</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -10586,25 +10586,25 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>417.6612145504504</v>
+        <v>170.1140909277288</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O35" t="n">
-        <v>161.8544041422902</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P35" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -10820,31 +10820,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>133.2530576400255</v>
+        <v>107.5040408147545</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -23258,10 +23258,10 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23273,7 +23273,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>41.57692977292595</v>
@@ -23306,16 +23306,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
-        <v>41.30204999791746</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>88.97131881835057</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -23419,22 +23419,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>42.02872873825321</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>21.5947289549143</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23476,13 +23476,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23504,10 +23504,10 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H14" t="n">
         <v>294.6077643873205</v>
@@ -23543,19 +23543,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>109.1877617881758</v>
+        <v>4.18537545208207</v>
       </c>
       <c r="T14" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>181.1251564493167</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23671,7 +23671,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>83.32522828944182</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23713,7 +23713,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>83.32522828944164</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23890,10 +23890,10 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>128.326341391049</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23944,19 +23944,19 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>146.7200013621196</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24130,7 +24130,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24145,7 +24145,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,13 +24175,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>11.52821577190969</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
-        <v>272.3211098256412</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24364,10 +24364,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>42.02872873825298</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -24409,25 +24409,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>190.6693822371919</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24598,28 +24598,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>145.1203024196441</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24655,10 +24655,10 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2118382056129</v>
+        <v>20.18346650181309</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24667,7 +24667,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24835,16 +24835,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>14.05393160749114</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -24856,7 +24856,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,10 +24883,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24895,7 +24895,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>111.9979090721355</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -24904,7 +24904,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25081,10 +25081,10 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>26.8363329365578</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>189.7690253314419</v>
@@ -25135,7 +25135,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>83.32522828944164</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25321,16 +25321,16 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.0258082590282</v>
+        <v>83.32522828944617</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,28 +25357,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>267.8312516636115</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25546,10 +25546,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>105.0742887270138</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25594,13 +25594,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>3.556976973656674</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25628,10 +25628,10 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -25640,13 +25640,13 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>319.4759788962355</v>
+        <v>181.1251564493168</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25676,22 +25676,22 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25786,19 +25786,19 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H43" t="n">
         <v>144.7550149143208</v>
@@ -25831,25 +25831,25 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S43" t="n">
-        <v>189.7690253314419</v>
+        <v>16.14213605696594</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>31.39467469238099</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -25880,7 +25880,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>126.491952119223</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
         <v>41.57692977292595</v>
@@ -25925,13 +25925,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>181.1251564493155</v>
       </c>
     </row>
     <row r="45">
@@ -26026,7 +26026,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -26035,10 +26035,10 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>20.82159033602942</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -26080,10 +26080,10 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>83.32522828944164</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>994535.2673797334</v>
+        <v>972144.3615672112</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>972144.3615672112</v>
+        <v>932465.1917749628</v>
       </c>
     </row>
     <row r="5">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>921202.9459189281</v>
+        <v>921202.945918928</v>
       </c>
     </row>
     <row r="8">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>921202.9459189281</v>
+        <v>921202.945918928</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>921202.945918928</v>
+        <v>921202.9459189281</v>
       </c>
     </row>
     <row r="12">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>772123.0244046705</v>
+        <v>772123.0244046702</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>772123.0244046706</v>
+        <v>772123.0244046703</v>
       </c>
     </row>
   </sheetData>
@@ -26311,25 +26311,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>513151.1061651767</v>
+        <v>513151.1061651768</v>
       </c>
       <c r="C2" t="n">
-        <v>513151.1061651771</v>
+        <v>513151.106165177</v>
       </c>
       <c r="D2" t="n">
-        <v>513151.1061651771</v>
+        <v>513151.1061651772</v>
       </c>
       <c r="E2" t="n">
-        <v>426246.3737136507</v>
+        <v>426246.3737136506</v>
       </c>
       <c r="F2" t="n">
         <v>426246.3737136507</v>
       </c>
       <c r="G2" t="n">
-        <v>496352.2336087288</v>
+        <v>496352.233608729</v>
       </c>
       <c r="H2" t="n">
-        <v>496352.2336087288</v>
+        <v>496352.2336087289</v>
       </c>
       <c r="I2" t="n">
         <v>496352.2336087289</v>
@@ -26338,13 +26338,13 @@
         <v>496352.2336087289</v>
       </c>
       <c r="K2" t="n">
-        <v>496352.2336087288</v>
+        <v>496352.233608729</v>
       </c>
       <c r="L2" t="n">
-        <v>496352.2336087288</v>
+        <v>496352.2336087289</v>
       </c>
       <c r="M2" t="n">
-        <v>496352.2336087288</v>
+        <v>496352.2336087287</v>
       </c>
       <c r="N2" t="n">
         <v>496352.2336087289</v>
@@ -26366,19 +26366,19 @@
         <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>196446.3877966352</v>
       </c>
       <c r="D3" t="n">
-        <v>184756.2785481115</v>
+        <v>315238.2384513056</v>
       </c>
       <c r="E3" t="n">
-        <v>445640.2295734512</v>
+        <v>149914.8602001175</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>99523.40868091492</v>
+        <v>99523.40868091486</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>39153.48277254675</v>
+        <v>39153.48277254663</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>207826.5542404877</v>
+        <v>209922.4154630333</v>
       </c>
       <c r="C4" t="n">
-        <v>207826.5542404877</v>
+        <v>176266.9759012794</v>
       </c>
       <c r="D4" t="n">
-        <v>174833.3509411825</v>
+        <v>121617.1617317167</v>
       </c>
       <c r="E4" t="n">
-        <v>5356.477108136404</v>
+        <v>5500.795347005323</v>
       </c>
       <c r="F4" t="n">
-        <v>5356.477108136404</v>
+        <v>5500.795347005323</v>
       </c>
       <c r="G4" t="n">
-        <v>27740.54210219667</v>
+        <v>28561.83935289573</v>
       </c>
       <c r="H4" t="n">
-        <v>27740.54210219667</v>
+        <v>28561.83935289574</v>
       </c>
       <c r="I4" t="n">
-        <v>27740.54210219666</v>
+        <v>28561.83935289573</v>
       </c>
       <c r="J4" t="n">
-        <v>27740.54210219669</v>
+        <v>28561.83935289575</v>
       </c>
       <c r="K4" t="n">
-        <v>27740.54210219667</v>
+        <v>28561.83935289575</v>
       </c>
       <c r="L4" t="n">
-        <v>27740.54210219667</v>
+        <v>28561.83935289574</v>
       </c>
       <c r="M4" t="n">
-        <v>27740.54210219669</v>
+        <v>28561.83935289573</v>
       </c>
       <c r="N4" t="n">
-        <v>27740.54210219669</v>
+        <v>28561.83935289573</v>
       </c>
       <c r="O4" t="n">
-        <v>5356.477108136404</v>
+        <v>5500.795347005323</v>
       </c>
       <c r="P4" t="n">
-        <v>5356.477108136404</v>
+        <v>5500.795347005323</v>
       </c>
     </row>
     <row r="5">
@@ -26470,16 +26470,16 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340948</v>
+        <v>87562.04517084679</v>
       </c>
       <c r="D5" t="n">
-        <v>87562.0451708468</v>
+        <v>95586.42776879412</v>
       </c>
       <c r="E5" t="n">
         <v>74306.3405613933</v>
       </c>
       <c r="F5" t="n">
-        <v>74306.34056139328</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="G5" t="n">
         <v>96383.51825371364</v>
@@ -26494,19 +26494,19 @@
         <v>96383.51825371366</v>
       </c>
       <c r="K5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="L5" t="n">
         <v>96383.51825371364</v>
       </c>
       <c r="M5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371363</v>
       </c>
       <c r="N5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371363</v>
       </c>
       <c r="O5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139328</v>
       </c>
       <c r="P5" t="n">
         <v>74306.3405613933</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-367502.4053532651</v>
+        <v>-369598.2665758105</v>
       </c>
       <c r="C6" t="n">
-        <v>222465.4738612799</v>
+        <v>52875.69729641564</v>
       </c>
       <c r="D6" t="n">
-        <v>65999.43150503625</v>
+        <v>-19290.72178663919</v>
       </c>
       <c r="E6" t="n">
-        <v>-99056.67352933012</v>
+        <v>196524.3776051346</v>
       </c>
       <c r="F6" t="n">
-        <v>346583.556044121</v>
+        <v>346439.2378052521</v>
       </c>
       <c r="G6" t="n">
-        <v>272704.7645719036</v>
+        <v>271883.4673212047</v>
       </c>
       <c r="H6" t="n">
-        <v>372228.1732528185</v>
+        <v>371406.8760021195</v>
       </c>
       <c r="I6" t="n">
-        <v>372228.1732528186</v>
+        <v>371406.8760021195</v>
       </c>
       <c r="J6" t="n">
-        <v>195804.9540602256</v>
+        <v>194983.6568095265</v>
       </c>
       <c r="K6" t="n">
-        <v>372228.1732528185</v>
+        <v>371406.8760021196</v>
       </c>
       <c r="L6" t="n">
-        <v>372228.1732528185</v>
+        <v>371406.8760021195</v>
       </c>
       <c r="M6" t="n">
-        <v>333074.6904802717</v>
+        <v>332253.3932295727</v>
       </c>
       <c r="N6" t="n">
-        <v>372228.1732528185</v>
+        <v>371406.8760021195</v>
       </c>
       <c r="O6" t="n">
-        <v>346583.5560441209</v>
+        <v>346439.237805252</v>
       </c>
       <c r="P6" t="n">
-        <v>346583.556044121</v>
+        <v>346439.2378052521</v>
       </c>
     </row>
   </sheetData>
@@ -26738,10 +26738,10 @@
         <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>593.4761003380651</v>
       </c>
       <c r="D3" t="n">
-        <v>593.4761003380651</v>
+        <v>961.5670451980342</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26790,16 +26790,16 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545558</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545558</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="F4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="G4" t="n">
         <v>1194.51293060493</v>
@@ -26826,7 +26826,7 @@
         <v>1194.51293060493</v>
       </c>
       <c r="O4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="P4" t="n">
         <v>831.4014554022929</v>
@@ -26960,13 +26960,13 @@
         <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>215.7324361209784</v>
       </c>
       <c r="D3" t="n">
-        <v>215.7324361209783</v>
+        <v>368.0909448599691</v>
       </c>
       <c r="E3" t="n">
-        <v>496.3006002552332</v>
+        <v>128.2096553952641</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,13 +27018,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>157.114182647737</v>
+        <v>157.1141826477373</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>363.1114752026375</v>
+        <v>363.1114752026373</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545558</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>157.1141826477374</v>
+        <v>157.1141826477369</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,13 +27264,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>157.114182647737</v>
+        <v>157.1141826477373</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>363.1114752026375</v>
+        <v>363.1114752026373</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27376,28 +27376,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>360.3304125109041</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,13 +27424,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
@@ -27439,13 +27439,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>210.1404640128469</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27537,7 +27537,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27549,13 +27549,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>55.0459618805605</v>
+        <v>114.6987924912156</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>45.19995918853699</v>
@@ -27582,13 +27582,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
@@ -27600,7 +27600,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448612</v>
+        <v>76.75636745161135</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,16 +27664,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>108.8834281215523</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27682,7 +27682,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27783,19 +27783,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>152.7120966692326</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>123.266557879417</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>17.69584188176898</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,16 +27819,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>129.1731816677913</v>
       </c>
       <c r="S7" t="n">
-        <v>187.1779178403478</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>50.57947851758576</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27853,10 +27853,10 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>338.6709431590097</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -27865,13 +27865,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>315.0408840752156</v>
+        <v>88.81334093706755</v>
       </c>
       <c r="I8" t="n">
-        <v>118.4960408938903</v>
+        <v>61.44749355031658</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,19 +27901,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>154.6528871281402</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>212.651863114966</v>
+        <v>206.1742023667268</v>
       </c>
       <c r="U8" t="n">
-        <v>251.1547862223006</v>
+        <v>251.0364052149085</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28008,31 +28008,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>48.19016042140805</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.2570059982656</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>123.266557879417</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>17.69584188176898</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28056,22 +28056,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>129.1731816677913</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>205.3658819001186</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>223.3729047207587</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.260654658097</v>
+        <v>178.1185291235405</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340046</v>
+        <v>2.38583356919825</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141</v>
+        <v>24.43391804055158</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>91.97984867651562</v>
       </c>
       <c r="J5" t="n">
-        <v>128.8865178727436</v>
+        <v>202.4946418937401</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>303.4869768779021</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>376.5024309712531</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>418.9314987074825</v>
       </c>
       <c r="N5" t="n">
-        <v>270.9617944338305</v>
+        <v>425.710248335967</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>401.9861157822519</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954667</v>
+        <v>343.0858495426701</v>
       </c>
       <c r="Q5" t="n">
-        <v>163.9882055044138</v>
+        <v>257.6431848457577</v>
       </c>
       <c r="R5" t="n">
-        <v>95.390715366338</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727384</v>
+        <v>54.36718245810517</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473555</v>
+        <v>10.44398644916534</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1908666855358599</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141112</v>
+        <v>1.276533498840366</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188917</v>
+        <v>12.32862615985301</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>43.95082441182841</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396479</v>
+        <v>120.6044214847383</v>
       </c>
       <c r="K6" t="n">
-        <v>131.2017781649102</v>
+        <v>206.1321659070429</v>
       </c>
       <c r="L6" t="n">
-        <v>176.4169820478008</v>
+        <v>277.1701353512822</v>
       </c>
       <c r="M6" t="n">
-        <v>205.8702969983123</v>
+        <v>323.4444746842454</v>
       </c>
       <c r="N6" t="n">
-        <v>211.3190711736701</v>
+        <v>332.0050874900653</v>
       </c>
       <c r="O6" t="n">
-        <v>193.3156655923048</v>
+        <v>303.7197925947077</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>243.7619099671574</v>
       </c>
       <c r="Q6" t="n">
-        <v>103.7155811639065</v>
+        <v>162.9483813607457</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>79.25705355080804</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131473</v>
+        <v>23.71104985784626</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>5.145325813308317</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.08398246702897151</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078613</v>
+        <v>1.070202803888314</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644444</v>
+        <v>9.515075838207016</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492005</v>
+        <v>32.18391704784131</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813579</v>
+        <v>75.66333823490379</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302241</v>
+        <v>124.3381075790241</v>
       </c>
       <c r="L7" t="n">
-        <v>101.2724571246924</v>
+        <v>159.1099695889954</v>
       </c>
       <c r="M7" t="n">
-        <v>106.777606591725</v>
+        <v>167.7591540676927</v>
       </c>
       <c r="N7" t="n">
-        <v>104.2386737666594</v>
+        <v>163.7702163441091</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175846</v>
+        <v>151.2683017714137</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383802</v>
+        <v>129.436164572092</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>89.61489115104783</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701165</v>
+        <v>48.12020970937817</v>
       </c>
       <c r="S7" t="n">
-        <v>11.87105908695336</v>
+        <v>18.65071613685361</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>4.572684707522795</v>
       </c>
       <c r="U7" t="n">
-        <v>0.03715511451315611</v>
+        <v>0.0583746983939081</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>2.38583356919825</v>
+        <v>3.865596161600135</v>
       </c>
       <c r="H8" t="n">
-        <v>24.43391804055158</v>
+        <v>39.58853668998739</v>
       </c>
       <c r="I8" t="n">
-        <v>91.97984867651562</v>
+        <v>149.0283960200893</v>
       </c>
       <c r="J8" t="n">
-        <v>202.4946418937401</v>
+        <v>328.0876422206097</v>
       </c>
       <c r="K8" t="n">
-        <v>303.4869768779021</v>
+        <v>491.7183277411435</v>
       </c>
       <c r="L8" t="n">
-        <v>376.5024309712531</v>
+        <v>610.0200662717137</v>
       </c>
       <c r="M8" t="n">
-        <v>418.9314987074825</v>
+        <v>678.7648620105701</v>
       </c>
       <c r="N8" t="n">
-        <v>425.710248335967</v>
+        <v>689.7479871047166</v>
       </c>
       <c r="O8" t="n">
-        <v>401.9861157822519</v>
+        <v>651.3094652728051</v>
       </c>
       <c r="P8" t="n">
-        <v>343.0858495426701</v>
+        <v>555.8775600333017</v>
       </c>
       <c r="Q8" t="n">
-        <v>257.6431848457577</v>
+        <v>417.4408974959968</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>242.8222548861146</v>
       </c>
       <c r="S8" t="n">
-        <v>54.36718245810517</v>
+        <v>88.08727253246315</v>
       </c>
       <c r="T8" t="n">
-        <v>10.44398644916534</v>
+        <v>16.9216471974046</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1908666855358599</v>
+        <v>0.3092476929280107</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.276533498840366</v>
+        <v>2.068276285897658</v>
       </c>
       <c r="H9" t="n">
-        <v>12.32862615985301</v>
+        <v>19.97519465590634</v>
       </c>
       <c r="I9" t="n">
-        <v>43.95082441182841</v>
+        <v>71.21038966796763</v>
       </c>
       <c r="J9" t="n">
-        <v>120.6044214847383</v>
+        <v>195.4067520812345</v>
       </c>
       <c r="K9" t="n">
-        <v>206.1321659070429</v>
+        <v>333.9812632363776</v>
       </c>
       <c r="L9" t="n">
-        <v>277.1701353512822</v>
+        <v>449.0790242691386</v>
       </c>
       <c r="M9" t="n">
-        <v>323.4444746842454</v>
+        <v>524.0540396329286</v>
       </c>
       <c r="N9" t="n">
-        <v>332.0050874900653</v>
+        <v>537.9241906905494</v>
       </c>
       <c r="O9" t="n">
-        <v>303.7197925947077</v>
+        <v>492.0955424609223</v>
       </c>
       <c r="P9" t="n">
-        <v>243.7619099671574</v>
+        <v>394.9500567342643</v>
       </c>
       <c r="Q9" t="n">
-        <v>162.9483813607457</v>
+        <v>264.0136536173924</v>
       </c>
       <c r="R9" t="n">
-        <v>79.25705355080804</v>
+        <v>128.4145574700319</v>
       </c>
       <c r="S9" t="n">
-        <v>23.71104985784626</v>
+        <v>38.4173248718271</v>
       </c>
       <c r="T9" t="n">
-        <v>5.145325813308317</v>
+        <v>8.336604854122577</v>
       </c>
       <c r="U9" t="n">
-        <v>0.08398246702897151</v>
+        <v>0.1360708082827407</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.070202803888314</v>
+        <v>1.733973360193176</v>
       </c>
       <c r="H10" t="n">
-        <v>9.515075838207016</v>
+        <v>15.41659951153571</v>
       </c>
       <c r="I10" t="n">
-        <v>32.18391704784131</v>
+        <v>52.1453079592639</v>
       </c>
       <c r="J10" t="n">
-        <v>75.66333823490379</v>
+        <v>122.5919165656576</v>
       </c>
       <c r="K10" t="n">
-        <v>124.3381075790241</v>
+        <v>201.4561776660799</v>
       </c>
       <c r="L10" t="n">
-        <v>159.1099695889954</v>
+        <v>257.7945484781746</v>
       </c>
       <c r="M10" t="n">
-        <v>167.7591540676927</v>
+        <v>271.8082059073721</v>
       </c>
       <c r="N10" t="n">
-        <v>163.7702163441091</v>
+        <v>265.3452142921068</v>
       </c>
       <c r="O10" t="n">
-        <v>151.2683017714137</v>
+        <v>245.0892527662137</v>
       </c>
       <c r="P10" t="n">
-        <v>129.436164572092</v>
+        <v>209.7161962182728</v>
       </c>
       <c r="Q10" t="n">
-        <v>89.61489115104783</v>
+        <v>145.1966238249032</v>
       </c>
       <c r="R10" t="n">
-        <v>48.12020970937817</v>
+        <v>77.96574763195861</v>
       </c>
       <c r="S10" t="n">
-        <v>18.65071613685361</v>
+        <v>30.21842664991198</v>
       </c>
       <c r="T10" t="n">
-        <v>4.572684707522795</v>
+        <v>7.408795266279933</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0583746983939081</v>
+        <v>0.09458036510144609</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31859,7 +31859,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R12" t="n">
         <v>145.5365940905541</v>
@@ -32804,7 +32804,7 @@
         <v>557.708647897025</v>
       </c>
       <c r="P24" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q24" t="n">
         <v>299.2156706987487</v>
@@ -33023,7 +33023,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J27" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K27" t="n">
         <v>378.5123470353157</v>
@@ -33281,7 +33281,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
@@ -33500,7 +33500,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K33" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L33" t="n">
         <v>508.9565619138796</v>
@@ -33515,7 +33515,7 @@
         <v>557.708647897025</v>
       </c>
       <c r="P33" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q33" t="n">
         <v>299.2156706987487</v>
@@ -33743,7 +33743,7 @@
         <v>508.9565619138796</v>
       </c>
       <c r="M36" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N36" t="n">
         <v>609.6478166837925</v>
@@ -33974,7 +33974,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K39" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L39" t="n">
         <v>508.9565619138796</v>
@@ -33983,7 +33983,7 @@
         <v>593.9283018233475</v>
       </c>
       <c r="N39" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O39" t="n">
         <v>557.708647897025</v>
@@ -34229,7 +34229,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
@@ -34454,10 +34454,10 @@
         <v>508.9565619138796</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O45" t="n">
         <v>557.708647897025</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34796,7 +34796,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535575</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>21.44873736705384</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>407.5425384040863</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435303</v>
+        <v>558.3972305517163</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>188.5852654802098</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492238</v>
+        <v>633.6441091513602</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530453</v>
+        <v>391.298222921299</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116798</v>
+        <v>433.6515619588832</v>
       </c>
       <c r="Q5" t="n">
-        <v>153.997506289869</v>
+        <v>35.33749497130819</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35015,25 +35015,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>68.29072693268387</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713857</v>
+        <v>509.4561008748672</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262938</v>
+        <v>647.0155045122269</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>377.4642727362752</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>554.9858674269929</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>428.2502711927643</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3926104730631</v>
+        <v>22.96660727472423</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,25 +35094,25 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713956</v>
+        <v>102.0686157531412</v>
       </c>
       <c r="L7" t="n">
-        <v>128.8624823850085</v>
+        <v>186.6999948493115</v>
       </c>
       <c r="M7" t="n">
-        <v>146.3614835535656</v>
+        <v>207.3430310295333</v>
       </c>
       <c r="N7" t="n">
-        <v>148.370846145888</v>
+        <v>207.9023887233377</v>
       </c>
       <c r="O7" t="n">
-        <v>120.8664146557981</v>
+        <v>175.8534296854534</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873151</v>
+        <v>126.7147238369855</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>3.452847899353443</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.5453525391276</v>
+        <v>147.0417376939234</v>
       </c>
       <c r="K8" t="n">
-        <v>398.8547687014848</v>
+        <v>271.628476696163</v>
       </c>
       <c r="L8" t="n">
-        <v>558.3972305517163</v>
+        <v>374.2536513017265</v>
       </c>
       <c r="M8" t="n">
-        <v>188.5852654802098</v>
+        <v>448.4186287832974</v>
       </c>
       <c r="N8" t="n">
-        <v>633.6441091513602</v>
+        <v>460.3349235081257</v>
       </c>
       <c r="O8" t="n">
-        <v>552.6880856233105</v>
+        <v>421.2112538511184</v>
       </c>
       <c r="P8" t="n">
-        <v>111.8528537874005</v>
+        <v>324.6445642780322</v>
       </c>
       <c r="Q8" t="n">
-        <v>35.33749497130819</v>
+        <v>195.1352076215473</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>27.23671707198253</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>194.6601607549767</v>
       </c>
       <c r="K9" t="n">
-        <v>332.7559639452625</v>
+        <v>294.0960148009285</v>
       </c>
       <c r="L9" t="n">
-        <v>509.4561008748672</v>
+        <v>310.5246444892644</v>
       </c>
       <c r="M9" t="n">
-        <v>647.0155045122269</v>
+        <v>381.9200057109103</v>
       </c>
       <c r="N9" t="n">
-        <v>296.7840672645771</v>
+        <v>406.5824786072161</v>
       </c>
       <c r="O9" t="n">
-        <v>161.1235481502633</v>
+        <v>349.4992980164778</v>
       </c>
       <c r="P9" t="n">
-        <v>428.2502711927643</v>
+        <v>260.9756493199341</v>
       </c>
       <c r="Q9" t="n">
-        <v>233.0438950105733</v>
+        <v>334.10916726722</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>29.23273644898478</v>
       </c>
       <c r="K10" t="n">
-        <v>102.0686157531412</v>
+        <v>179.186685840197</v>
       </c>
       <c r="L10" t="n">
-        <v>186.6999948493115</v>
+        <v>285.3845737384908</v>
       </c>
       <c r="M10" t="n">
-        <v>207.3430310295333</v>
+        <v>311.3920828692127</v>
       </c>
       <c r="N10" t="n">
-        <v>207.9023887233377</v>
+        <v>309.4773866713355</v>
       </c>
       <c r="O10" t="n">
-        <v>175.8534296854534</v>
+        <v>269.6743806802534</v>
       </c>
       <c r="P10" t="n">
-        <v>126.7147238369855</v>
+        <v>206.9947554831663</v>
       </c>
       <c r="Q10" t="n">
-        <v>3.452847899353443</v>
+        <v>59.03458057320877</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35507,7 +35507,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L17" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M17" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N17" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O17" t="n">
-        <v>641.3060585282437</v>
+        <v>852.755584535902</v>
       </c>
       <c r="P17" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K23" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L23" t="n">
-        <v>873.2513289427826</v>
+        <v>807.0076448217349</v>
       </c>
       <c r="M23" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N23" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O23" t="n">
-        <v>575.5896386552608</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P23" t="n">
         <v>398.7619862193719</v>
       </c>
       <c r="Q23" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R23" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36452,7 +36452,7 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P24" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
         <v>159.2338966127272</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K26" t="n">
-        <v>337.1912865554005</v>
+        <v>625.2391015115037</v>
       </c>
       <c r="L26" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M26" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N26" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O26" t="n">
-        <v>641.3060585282446</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P26" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q26" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R26" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,7 +36671,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K27" t="n">
         <v>240.6709080609567</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K29" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L29" t="n">
-        <v>625.7042053200619</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M29" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N29" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O29" t="n">
         <v>888.8531821509645</v>
       </c>
       <c r="P29" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q29" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R29" t="n">
-        <v>59.61319854222478</v>
+        <v>89.23202080014572</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36929,7 +36929,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37066,28 +37066,28 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K32" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L32" t="n">
-        <v>625.7042053200619</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M32" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N32" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O32" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P32" t="n">
-        <v>398.7619862193719</v>
+        <v>713.3184833610698</v>
       </c>
       <c r="Q32" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R32" t="n">
         <v>59.61319854222478</v>
@@ -37148,7 +37148,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K33" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L33" t="n">
         <v>370.4021821340054</v>
@@ -37163,7 +37163,7 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P33" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q33" t="n">
         <v>159.2338966127272</v>
@@ -37306,25 +37306,25 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K35" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L35" t="n">
-        <v>873.2513289427826</v>
+        <v>625.704205320061</v>
       </c>
       <c r="M35" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N35" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O35" t="n">
-        <v>669.9074050305093</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P35" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q35" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R35" t="n">
         <v>59.61319854222478</v>
@@ -37391,7 +37391,7 @@
         <v>370.4021821340054</v>
       </c>
       <c r="M36" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N36" t="n">
         <v>478.3061046004592</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306171</v>
       </c>
       <c r="K37" t="n">
         <v>206.0476595443196</v>
@@ -37540,31 +37540,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K38" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L38" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M38" t="n">
         <v>988.4346493230593</v>
       </c>
       <c r="N38" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O38" t="n">
-        <v>641.3060585282446</v>
+        <v>615.5570417029736</v>
       </c>
       <c r="P38" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q38" t="n">
         <v>250.7943048037195</v>
       </c>
       <c r="R38" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37622,7 +37622,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K39" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L39" t="n">
         <v>370.4021821340054</v>
@@ -37631,7 +37631,7 @@
         <v>451.7942679013292</v>
       </c>
       <c r="N39" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O39" t="n">
         <v>415.1124034525806</v>
@@ -37780,7 +37780,7 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K41" t="n">
-        <v>337.1912865554008</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L41" t="n">
         <v>455.5901143923322</v>
@@ -37877,7 +37877,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38102,10 +38102,10 @@
         <v>370.4021821340054</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O45" t="n">
         <v>415.1124034525806</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_8_25.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_8_25.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1541893.064374088</v>
+        <v>1537587.347998017</v>
       </c>
     </row>
     <row r="7">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -667,10 +667,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>310.191887013951</v>
       </c>
       <c r="G2" t="n">
         <v>413.784170020795</v>
@@ -679,7 +679,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>65.43864716835451</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,10 +706,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
@@ -718,13 +718,13 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -816,22 +816,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>101.7806877295488</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>59.7268375758684</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -885,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -907,13 +907,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>311.4936872159398</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>6.283679164003906</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -958,13 +958,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1056,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>70.80276983270106</v>
+        <v>59.66385641544537</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -1068,10 +1068,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1132,16 +1132,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>206.057185384448</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>35.30200844132176</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1153,7 +1153,7 @@
         <v>315.0408840752156</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>118.4960408938903</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T8" t="n">
         <v>212.651863114966</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1290,31 +1290,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>163.9594210503732</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.9207765545704</v>
       </c>
       <c r="H10" t="n">
-        <v>152.7120966692326</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>17.69584188176898</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1338,10 +1338,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>129.1731816677913</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>205.3658819001186</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>138.2355757893319</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1387,7 +1387,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1527,16 +1527,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>135.3135037226517</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -1548,7 +1548,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1596,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>15.9345014072213</v>
       </c>
     </row>
     <row r="14">
@@ -1666,7 +1666,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1764,19 +1764,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>135.3135037226517</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -1785,7 +1785,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0.2811815126418742</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1821,7 +1821,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1833,7 +1833,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1855,7 +1855,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G17" t="n">
         <v>409.8033385187866</v>
@@ -2010,19 +2010,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>134.5665975534139</v>
       </c>
       <c r="H19" t="n">
-        <v>54.31367585848631</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2241,25 +2241,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>103.8784673763403</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>90.14863908058132</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,16 +2286,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2481,13 +2481,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>83.06560892428269</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>35.41770597126623</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -2724,16 +2724,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>34.22340015155905</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,16 +2760,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>105.6507867899574</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -2964,10 +2964,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,16 +2997,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>72.26558381699921</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3018,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>206.5358970628703</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>107.387005480723</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -3204,10 +3204,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3246,16 +3246,16 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>178.2798710842933</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3280,7 +3280,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3331,7 +3331,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3426,22 +3426,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>41.74133133758716</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>9.146142788179931</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3666,10 +3666,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3681,7 +3681,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3720,16 +3720,16 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>44.30292280757614</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>161.355549430153</v>
       </c>
     </row>
     <row r="41">
@@ -3742,7 +3742,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710079</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3915,10 +3915,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,19 +3948,19 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>172.0260335000785</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>281.6778446725264</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4140,19 +4140,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>108.2950343703271</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4203,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>26.70391688093255</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,43 +4306,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1661.975310878425</v>
+        <v>1112.426648284105</v>
       </c>
       <c r="C2" t="n">
-        <v>1661.975310878425</v>
+        <v>1112.426648284105</v>
       </c>
       <c r="D2" t="n">
-        <v>1661.975310878425</v>
+        <v>1112.426648284105</v>
       </c>
       <c r="E2" t="n">
-        <v>1276.187058280181</v>
+        <v>1112.426648284105</v>
       </c>
       <c r="F2" t="n">
-        <v>865.2011534905732</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G2" t="n">
-        <v>447.2373453887601</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H2" t="n">
-        <v>120.0426254247629</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2520.971603332393</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T2" t="n">
-        <v>2302.336936304455</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U2" t="n">
-        <v>2048.575150942547</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V2" t="n">
-        <v>2048.575150942547</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="W2" t="n">
-        <v>2048.575150942547</v>
+        <v>1485.892406545185</v>
       </c>
       <c r="X2" t="n">
-        <v>2048.575150942547</v>
+        <v>1112.426648284105</v>
       </c>
       <c r="Y2" t="n">
-        <v>2048.575150942547</v>
+        <v>1112.426648284105</v>
       </c>
     </row>
     <row r="3">
@@ -4400,10 +4400,10 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4427,7 +4427,7 @@
         <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2294.708047044453</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C4" t="n">
-        <v>2125.771864116546</v>
+        <v>559.1928012785273</v>
       </c>
       <c r="D4" t="n">
-        <v>2022.963088632153</v>
+        <v>409.0761618661916</v>
       </c>
       <c r="E4" t="n">
-        <v>2022.963088632153</v>
+        <v>261.1630682837985</v>
       </c>
       <c r="F4" t="n">
-        <v>2022.963088632153</v>
+        <v>114.2731207858881</v>
       </c>
       <c r="G4" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K4" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>2206.839139259579</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>2351.737007977609</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W4" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X4" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y4" t="n">
-        <v>2476.356511874692</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2310.5492509541</v>
+        <v>1187.828354776384</v>
       </c>
       <c r="C5" t="n">
-        <v>1941.586734013689</v>
+        <v>818.8658378359718</v>
       </c>
       <c r="D5" t="n">
-        <v>1583.321035406938</v>
+        <v>460.6001392292213</v>
       </c>
       <c r="E5" t="n">
-        <v>1197.532782808694</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="F5" t="n">
-        <v>786.5468780190865</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G5" t="n">
-        <v>368.5830699172734</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
         <v>53.94298182036445</v>
@@ -4567,13 +4567,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.710838053314</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733125</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4594,25 +4594,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2690.801940347511</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018222</v>
+        <v>2690.801940347511</v>
       </c>
       <c r="U5" t="n">
-        <v>2697.149091018222</v>
+        <v>2690.801940347511</v>
       </c>
       <c r="V5" t="n">
-        <v>2697.149091018222</v>
+        <v>2690.801940347511</v>
       </c>
       <c r="W5" t="n">
-        <v>2697.149091018222</v>
+        <v>2338.033285077397</v>
       </c>
       <c r="X5" t="n">
-        <v>2697.149091018222</v>
+        <v>1964.567526816317</v>
       </c>
       <c r="Y5" t="n">
-        <v>2697.149091018222</v>
+        <v>1574.428194840505</v>
       </c>
     </row>
     <row r="6">
@@ -4622,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
@@ -4649,40 +4649,40 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4704,19 +4704,19 @@
         <v>728.1289842064342</v>
       </c>
       <c r="C7" t="n">
-        <v>656.6110348804735</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="D7" t="n">
-        <v>506.4943954681378</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="E7" t="n">
-        <v>358.5813018857447</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F7" t="n">
-        <v>211.6913543878343</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G7" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
         <v>53.94298182036445</v>
@@ -4780,40 +4780,40 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1200.239783601035</v>
+        <v>1741.379601184342</v>
       </c>
       <c r="C8" t="n">
-        <v>1200.239783601035</v>
+        <v>1741.379601184342</v>
       </c>
       <c r="D8" t="n">
-        <v>1200.239783601035</v>
+        <v>1705.721006799168</v>
       </c>
       <c r="E8" t="n">
-        <v>1200.239783601035</v>
+        <v>1319.932754200924</v>
       </c>
       <c r="F8" t="n">
-        <v>789.2538788114275</v>
+        <v>908.9468494113166</v>
       </c>
       <c r="G8" t="n">
-        <v>372.1660970478549</v>
+        <v>491.8590676477442</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>173.6359524202537</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>75.17723181374775</v>
+        <v>242.5828808341008</v>
       </c>
       <c r="K8" t="n">
-        <v>478.6443448337932</v>
+        <v>646.0499938541462</v>
       </c>
       <c r="L8" t="n">
-        <v>1031.457603079992</v>
+        <v>1094.46325341956</v>
       </c>
       <c r="M8" t="n">
-        <v>1218.1570159054</v>
+        <v>1281.162666244967</v>
       </c>
       <c r="N8" t="n">
         <v>1475.49687913695</v>
@@ -4831,25 +4831,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2540.93405351505</v>
       </c>
       <c r="T8" t="n">
-        <v>2482.349229285934</v>
+        <v>2326.134191782762</v>
       </c>
       <c r="U8" t="n">
-        <v>2482.349229285934</v>
+        <v>2072.442488527913</v>
       </c>
       <c r="V8" t="n">
-        <v>2151.286341942363</v>
+        <v>1741.379601184342</v>
       </c>
       <c r="W8" t="n">
-        <v>1798.517686672249</v>
+        <v>1741.379601184342</v>
       </c>
       <c r="X8" t="n">
-        <v>1798.517686672249</v>
+        <v>1741.379601184342</v>
       </c>
       <c r="Y8" t="n">
-        <v>1408.378354696437</v>
+        <v>1741.379601184342</v>
       </c>
     </row>
     <row r="9">
@@ -4886,16 +4886,16 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>121.5508014837215</v>
+        <v>383.3713861261743</v>
       </c>
       <c r="L9" t="n">
-        <v>514.004752557214</v>
+        <v>592.9687148475971</v>
       </c>
       <c r="M9" t="n">
-        <v>1154.550102024319</v>
+        <v>1233.514064314702</v>
       </c>
       <c r="N9" t="n">
-        <v>1822.094502051329</v>
+        <v>1432.170805967367</v>
       </c>
       <c r="O9" t="n">
         <v>1981.606814720089</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>394.6790576845786</v>
+        <v>667.4695073176202</v>
       </c>
       <c r="C10" t="n">
-        <v>394.6790576845786</v>
+        <v>667.4695073176202</v>
       </c>
       <c r="D10" t="n">
-        <v>394.6790576845786</v>
+        <v>517.3528679052845</v>
       </c>
       <c r="E10" t="n">
-        <v>394.6790576845786</v>
+        <v>369.4397743228914</v>
       </c>
       <c r="F10" t="n">
-        <v>394.6790576845786</v>
+        <v>222.5498268249811</v>
       </c>
       <c r="G10" t="n">
-        <v>226.072212679962</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>71.81756957972706</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>71.81756957972706</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4986,28 +4986,28 @@
         <v>1053.877663279709</v>
       </c>
       <c r="R10" t="n">
-        <v>923.3997019991118</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="S10" t="n">
-        <v>715.9594172515172</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="T10" t="n">
-        <v>715.9594172515172</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="U10" t="n">
-        <v>715.9594172515172</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="V10" t="n">
-        <v>715.9594172515172</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="W10" t="n">
-        <v>715.9594172515172</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="X10" t="n">
-        <v>715.9594172515172</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="Y10" t="n">
-        <v>576.3275225148183</v>
+        <v>833.085084136179</v>
       </c>
     </row>
     <row r="11">
@@ -5023,28 +5023,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111712</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5059,7 +5059,7 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
         <v>4562.265728852255</v>
@@ -5120,22 +5120,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N12" t="n">
-        <v>2297.690135143765</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O12" t="n">
-        <v>2297.690135143765</v>
+        <v>2366.028450684176</v>
       </c>
       <c r="P12" t="n">
         <v>2553.061288060775</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>916.2946447138411</v>
+        <v>718.5507239167111</v>
       </c>
       <c r="C13" t="n">
-        <v>916.2946447138411</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232838</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408906</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
@@ -5244,7 +5244,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>916.2946447138411</v>
+        <v>900.1991887469509</v>
       </c>
     </row>
     <row r="14">
@@ -5254,43 +5254,43 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H14" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5311,19 +5311,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="15">
@@ -5357,25 +5357,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K15" t="n">
-        <v>243.4633055756266</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L15" t="n">
-        <v>738.7889117913853</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M15" t="n">
-        <v>1336.167399417937</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N15" t="n">
-        <v>1963.765362972544</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O15" t="n">
-        <v>2515.675093211831</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P15" t="n">
-        <v>2515.675093211831</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>916.2946447138411</v>
+        <v>869.6905094135296</v>
       </c>
       <c r="C16" t="n">
-        <v>916.2946447138411</v>
+        <v>700.7543264856228</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232838</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5460,28 +5460,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.679061850319</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2263.824227505223</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.222762528164</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>2044.222762528164</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1789.538274322277</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1500.121104285317</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>1272.131553387299</v>
       </c>
       <c r="Y16" t="n">
-        <v>916.2946447138411</v>
+        <v>1051.338974243769</v>
       </c>
     </row>
     <row r="17">
@@ -5497,22 +5497,22 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111715</v>
@@ -5524,10 +5524,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
         <v>3640.422291068009</v>
@@ -5591,22 +5591,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5658,16 +5658,16 @@
         <v>377.6556127449245</v>
       </c>
       <c r="E19" t="n">
-        <v>377.6556127449245</v>
+        <v>229.7425191625314</v>
       </c>
       <c r="F19" t="n">
-        <v>230.7656652470141</v>
+        <v>229.7425191625314</v>
       </c>
       <c r="G19" t="n">
-        <v>230.7656652470141</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5743,37 +5743,37 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5788,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5846,7 +5846,7 @@
         <v>2297.690135143765</v>
       </c>
       <c r="O21" t="n">
-        <v>2297.690135143765</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1022.530292372933</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>853.594109445026</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D22" t="n">
-        <v>703.4774700326902</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E22" t="n">
-        <v>555.5643764502971</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F22" t="n">
-        <v>408.6744289523867</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2197.062545487568</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>2197.062545487568</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1942.378057281681</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1652.96088724472</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1424.971336346703</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>1204.178757203173</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5977,34 +5977,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6074,16 +6074,16 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>949.9304447718132</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>949.9304447718132</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>1577.52840832642</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O24" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2757.723669558405</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C25" t="n">
-        <v>2588.787486630498</v>
+        <v>594.8179559048574</v>
       </c>
       <c r="D25" t="n">
-        <v>2504.882831151424</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="E25" t="n">
-        <v>2504.882831151424</v>
+        <v>296.7882229101285</v>
       </c>
       <c r="F25" t="n">
-        <v>2504.882831151424</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G25" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>4623.787448650995</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>4440.9326143059</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T25" t="n">
-        <v>4221.331149328841</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U25" t="n">
-        <v>3932.255922673039</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V25" t="n">
-        <v>3677.571434467152</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W25" t="n">
-        <v>3388.154264430192</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X25" t="n">
-        <v>3160.164713532175</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y25" t="n">
-        <v>2939.372134388645</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="26">
@@ -6217,19 +6217,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6238,16 +6238,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6302,25 +6302,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>484.8243144841094</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>980.1499206998682</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1577.52840832642</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1098.667160263526</v>
+        <v>762.5477693179085</v>
       </c>
       <c r="C28" t="n">
-        <v>929.7309773356194</v>
+        <v>593.6115863900017</v>
       </c>
       <c r="D28" t="n">
-        <v>779.6143379232836</v>
+        <v>443.4949469776659</v>
       </c>
       <c r="E28" t="n">
-        <v>631.7012443408905</v>
+        <v>295.5818533952728</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2379.917379832663</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T28" t="n">
-        <v>2379.917379832663</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U28" t="n">
-        <v>2273.199413378161</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V28" t="n">
-        <v>2018.514925172274</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W28" t="n">
-        <v>1729.097755135313</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X28" t="n">
-        <v>1501.108204237296</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y28" t="n">
-        <v>1280.315625093766</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="29">
@@ -6442,7 +6442,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
         <v>1590.547811004713</v>
@@ -6451,61 +6451,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.8166630479719</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332389</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6527,7 +6527,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6536,25 +6536,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>280.8495004245705</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>707.672526468518</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C31" t="n">
-        <v>538.7363435406111</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D31" t="n">
-        <v>388.6197041282754</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E31" t="n">
-        <v>240.7066105458823</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F31" t="n">
-        <v>93.81666304797189</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797189</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510509</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854707</v>
+        <v>2191.112710026075</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.70136564882</v>
+        <v>1936.428221820188</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611859</v>
+        <v>1647.011051783227</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138415</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y31" t="n">
-        <v>707.672526468518</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="32">
@@ -6688,34 +6688,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C33" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D33" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G33" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>2231.588527385791</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J33" t="n">
-        <v>2381.235169913446</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>2381.235169913446</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L33" t="n">
-        <v>2490.32382148308</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>3087.702309109632</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>3715.300272664238</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>4267.210002903525</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S33" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T33" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U33" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V33" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W33" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X33" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y33" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1098.667160263527</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C34" t="n">
-        <v>929.7309773356195</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D34" t="n">
-        <v>779.6143379232838</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E34" t="n">
-        <v>631.7012443408906</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V34" t="n">
-        <v>1688.385853854706</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W34" t="n">
-        <v>1688.385853854706</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X34" t="n">
-        <v>1460.396302956689</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y34" t="n">
-        <v>1280.315625093766</v>
+        <v>983.3403484614391</v>
       </c>
     </row>
     <row r="35">
@@ -6916,7 +6916,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004713</v>
@@ -6925,58 +6925,58 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
         <v>3094.515198591809</v>
@@ -7001,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7010,31 +7010,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L36" t="n">
-        <v>716.6687843969308</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>580.8993044876688</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C37" t="n">
-        <v>538.7363435406111</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D37" t="n">
-        <v>388.6197041282753</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E37" t="n">
-        <v>240.7066105458822</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F37" t="n">
-        <v>93.81666304797187</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235165</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T37" t="n">
-        <v>2044.506784258106</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U37" t="n">
-        <v>1755.431557602304</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V37" t="n">
-        <v>1500.747069396417</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W37" t="n">
-        <v>1211.329899359456</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X37" t="n">
-        <v>983.3403484614387</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y37" t="n">
-        <v>762.5477693179085</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="38">
@@ -7162,22 +7162,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7186,16 +7186,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7250,22 +7250,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>280.8495004245706</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>951.777212765616</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C40" t="n">
-        <v>782.8410298377091</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D40" t="n">
-        <v>632.7243904253734</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E40" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>1643.635426776346</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W40" t="n">
-        <v>1354.218256739386</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>1354.218256739386</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y40" t="n">
-        <v>1133.425677595856</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="41">
@@ -7399,61 +7399,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7475,7 +7475,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7484,31 +7484,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L42" t="n">
-        <v>542.9134462654469</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1140.291933891999</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1767.889897446606</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.061288060775</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1098.667160263527</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C43" t="n">
-        <v>929.7309773356195</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D43" t="n">
-        <v>779.6143379232838</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E43" t="n">
-        <v>631.7012443408906</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S43" t="n">
-        <v>2446.96308358026</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T43" t="n">
-        <v>2446.96308358026</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U43" t="n">
-        <v>2273.199413378161</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="V43" t="n">
-        <v>2018.514925172274</v>
+        <v>1789.822296052219</v>
       </c>
       <c r="W43" t="n">
-        <v>1729.097755135313</v>
+        <v>1505.299220625425</v>
       </c>
       <c r="X43" t="n">
-        <v>1501.108204237296</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y43" t="n">
-        <v>1280.315625093766</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="44">
@@ -7624,52 +7624,52 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
@@ -7681,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7730,22 +7730,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>243.4633055756266</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>840.8417932021785</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N45" t="n">
-        <v>1468.439756756785</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O45" t="n">
-        <v>2020.349486996072</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
         <v>2553.061288060775</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>707.672526468518</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C46" t="n">
-        <v>538.7363435406111</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D46" t="n">
-        <v>388.6197041282753</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E46" t="n">
-        <v>240.7066105458822</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F46" t="n">
-        <v>93.81666304797187</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7806,52 +7806,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y46" t="n">
-        <v>889.3209912987577</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
   </sheetData>
@@ -8075,10 +8075,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>199.0269485415596</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8215,7 +8215,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
         <v>324.1454125711647</v>
@@ -8297,7 +8297,7 @@
         <v>50.07369958270193</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719079</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>166.6588033951786</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8452,19 +8452,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L8" t="n">
-        <v>417.6612145504504</v>
+        <v>312.2066704284449</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>63.64207105006807</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
         <v>380.8001812627454</v>
@@ -8534,19 +8534,19 @@
         <v>6.233205181928369</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>257.8023768260592</v>
+        <v>73.09871788457451</v>
       </c>
       <c r="M9" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>473.6238973478236</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -9646,7 +9646,7 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>-2.300097184559153e-14</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -23415,16 +23415,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>13.30196929556061</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23436,7 +23436,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>202.6501519448735</v>
       </c>
     </row>
     <row r="14">
@@ -23652,19 +23652,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>13.30196929556061</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23673,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.09406519747981</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23709,7 +23709,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23898,19 +23898,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>30.95754073885493</v>
       </c>
       <c r="H19" t="n">
-        <v>85.98103698773758</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -24129,25 +24129,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>44.73700564187206</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>75.37549921168753</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24180,10 +24180,10 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24369,13 +24369,13 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>65.54986409392967</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>110.003342051665</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24384,7 +24384,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24612,16 +24612,16 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>111.1976478713722</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,16 +24648,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>180.5336875992868</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24852,13 +24852,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,16 +24885,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>213.9188905722449</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>12.04875628922446</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>72.44497470121425</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -25092,10 +25092,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25134,16 +25134,16 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>40.30478226780144</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25314,25 +25314,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>125.5054897610407</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25554,10 +25554,10 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25569,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25608,16 +25608,16 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>207.8347205162519</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>57.22910392194177</v>
       </c>
     </row>
     <row r="41">
@@ -25803,10 +25803,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,22 +25833,22 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>114.1584408891656</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>4.84515366406464</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26028,22 +26028,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>191.8807364711622</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>912919.4763713557</v>
+        <v>912919.4763713556</v>
       </c>
     </row>
     <row r="6">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>912919.4763713558</v>
+        <v>912919.4763713557</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>912919.4763713558</v>
+        <v>912919.4763713557</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>912919.4763713556</v>
+        <v>912919.4763713557</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>912919.4763713558</v>
+        <v>912919.4763713556</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>912919.4763713557</v>
+        <v>912919.4763713556</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>912919.4763713558</v>
+        <v>912919.4763713557</v>
       </c>
     </row>
     <row r="16">
@@ -26316,43 +26316,43 @@
         <v>513151.1061651768</v>
       </c>
       <c r="C2" t="n">
-        <v>513151.1061651765</v>
+        <v>513151.1061651768</v>
       </c>
       <c r="D2" t="n">
         <v>513151.106165177</v>
       </c>
       <c r="E2" t="n">
+        <v>504466.6248062538</v>
+      </c>
+      <c r="F2" t="n">
         <v>504466.6248062536</v>
       </c>
-      <c r="F2" t="n">
-        <v>504466.6248062539</v>
-      </c>
       <c r="G2" t="n">
-        <v>504466.6248062537</v>
+        <v>504466.6248062536</v>
       </c>
       <c r="H2" t="n">
         <v>504466.6248062536</v>
       </c>
       <c r="I2" t="n">
+        <v>504466.6248062537</v>
+      </c>
+      <c r="J2" t="n">
+        <v>504466.6248062536</v>
+      </c>
+      <c r="K2" t="n">
         <v>504466.6248062538</v>
       </c>
-      <c r="J2" t="n">
-        <v>504466.6248062539</v>
-      </c>
-      <c r="K2" t="n">
+      <c r="L2" t="n">
+        <v>504466.6248062536</v>
+      </c>
+      <c r="M2" t="n">
+        <v>504466.6248062538</v>
+      </c>
+      <c r="N2" t="n">
         <v>504466.6248062537</v>
       </c>
-      <c r="L2" t="n">
-        <v>504466.6248062538</v>
-      </c>
-      <c r="M2" t="n">
-        <v>504466.6248062535</v>
-      </c>
-      <c r="N2" t="n">
-        <v>504466.6248062539</v>
-      </c>
       <c r="O2" t="n">
-        <v>504466.6248062539</v>
+        <v>504466.6248062537</v>
       </c>
       <c r="P2" t="n">
         <v>504466.6248062537</v>
@@ -26383,7 +26383,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1.741016149026109e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26395,10 +26395,10 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>1.62584001373034e-10</v>
       </c>
       <c r="M3" t="n">
-        <v>124208.5107080585</v>
+        <v>124208.5107080586</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26423,25 +26423,25 @@
         <v>209922.4154630333</v>
       </c>
       <c r="D4" t="n">
-        <v>176266.9759012794</v>
+        <v>176266.9759012793</v>
       </c>
       <c r="E4" t="n">
+        <v>5677.536566682745</v>
+      </c>
+      <c r="F4" t="n">
         <v>5677.536566682744</v>
-      </c>
-      <c r="F4" t="n">
-        <v>5677.536566682745</v>
       </c>
       <c r="G4" t="n">
         <v>5677.536566682745</v>
       </c>
       <c r="H4" t="n">
-        <v>5677.536566682744</v>
+        <v>5677.536566682745</v>
       </c>
       <c r="I4" t="n">
-        <v>5677.536566682718</v>
+        <v>5677.536566682745</v>
       </c>
       <c r="J4" t="n">
-        <v>5677.536566682744</v>
+        <v>5677.536566682745</v>
       </c>
       <c r="K4" t="n">
         <v>5677.536566682745</v>
@@ -26450,16 +26450,16 @@
         <v>5677.536566682745</v>
       </c>
       <c r="M4" t="n">
+        <v>5677.536566682745</v>
+      </c>
+      <c r="N4" t="n">
         <v>5677.536566682744</v>
-      </c>
-      <c r="N4" t="n">
-        <v>5677.536566682745</v>
       </c>
       <c r="O4" t="n">
         <v>5677.536566682745</v>
       </c>
       <c r="P4" t="n">
-        <v>5677.536566682745</v>
+        <v>5677.536566682744</v>
       </c>
     </row>
     <row r="5">
@@ -26524,46 +26524,46 @@
         <v>-369598.2665758104</v>
       </c>
       <c r="C6" t="n">
-        <v>220369.6126387338</v>
+        <v>220369.6126387341</v>
       </c>
       <c r="D6" t="n">
-        <v>64565.80654493917</v>
+        <v>64565.80654493926</v>
       </c>
       <c r="E6" t="n">
-        <v>-373386.1329651426</v>
+        <v>-373733.5122194994</v>
       </c>
       <c r="F6" t="n">
-        <v>397666.558415664</v>
+        <v>397319.1791613068</v>
       </c>
       <c r="G6" t="n">
-        <v>397666.5584156638</v>
+        <v>397319.1791613068</v>
       </c>
       <c r="H6" t="n">
-        <v>397666.5584156635</v>
+        <v>397319.1791613068</v>
       </c>
       <c r="I6" t="n">
-        <v>397666.558415664</v>
+        <v>397319.1791613069</v>
       </c>
       <c r="J6" t="n">
-        <v>221243.3392230711</v>
+        <v>220895.9599687139</v>
       </c>
       <c r="K6" t="n">
-        <v>397666.5584156638</v>
+        <v>397319.179161307</v>
       </c>
       <c r="L6" t="n">
-        <v>397666.5584156641</v>
+        <v>397319.1791613066</v>
       </c>
       <c r="M6" t="n">
-        <v>273458.0477076052</v>
+        <v>273110.6684532484</v>
       </c>
       <c r="N6" t="n">
-        <v>397666.558415664</v>
+        <v>397319.1791613069</v>
       </c>
       <c r="O6" t="n">
-        <v>397666.558415664</v>
+        <v>397319.1791613069</v>
       </c>
       <c r="P6" t="n">
-        <v>397666.5584156638</v>
+        <v>397319.1791613069</v>
       </c>
     </row>
   </sheetData>
@@ -26816,19 +26816,19 @@
         <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="P4" t="n">
         <v>1172.708288099648</v>
@@ -26977,19 +26977,19 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
         <v>2.273736754432321e-13</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.4210153450928</v>
+        <v>498.421015345093</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27387,10 +27387,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>96.6841587277604</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27399,7 +27399,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>86.49266907650674</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27426,10 +27426,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27438,13 +27438,13 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27536,22 +27536,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>46.83478528866354</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>107.5829646831825</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
@@ -27605,7 +27605,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27627,13 +27627,13 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>12.42908554841733</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -27666,7 +27666,7 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>168.1320336449676</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
@@ -27678,13 +27678,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27776,7 +27776,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>96.44405126592677</v>
+        <v>107.5829646831825</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27788,10 +27788,10 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
         <v>134.9656217923382</v>
@@ -27852,16 +27852,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>176.6766562790325</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>319.3810331793612</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27873,7 +27873,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>118.4960408938903</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,25 +27903,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>154.6528871281402</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28010,31 +28010,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>15.87255913156409</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>152.7120966692326</v>
       </c>
       <c r="I10" t="n">
         <v>123.266557879417</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>17.69584188176898</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28058,10 +28058,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>129.1731816677913</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>205.3658819001186</v>
       </c>
       <c r="T10" t="n">
         <v>223.3729047207587</v>
@@ -28079,7 +28079,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>80.34907756276291</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -31840,10 +31840,10 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
         <v>638.8832749473072</v>
@@ -31855,10 +31855,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>391.925066926462</v>
+        <v>322.8964653704906</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -32077,10 +32077,10 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
         <v>638.8832749473072</v>
@@ -32089,16 +32089,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>746.4857620875799</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>177.7456072667729</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
@@ -32311,7 +32311,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
@@ -32329,7 +32329,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
@@ -32554,22 +32554,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P21" t="n">
-        <v>391.925066926462</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -32578,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
@@ -32791,22 +32791,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>514.8598010172136</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -32815,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,34 +33016,34 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>381.6404378718164</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33052,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,31 +33253,31 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>175.6052721551105</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33289,13 +33289,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,34 +33490,34 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>248.7449369209185</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33660,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>279.2419622547062</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33897,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,31 +33964,31 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>175.6052721551106</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34000,13 +34000,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34134,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>441.0292693655512</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34371,31 +34371,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,10 +34438,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
         <v>99.52238</v>
@@ -34450,37 +34450,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P45" t="n">
-        <v>436.4492970000073</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34795,10 +34795,10 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>220.205405775187</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34935,7 +34935,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181308</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
         <v>297.2230414343419</v>
@@ -35017,7 +35017,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624591</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35035,7 +35035,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3926104730635</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35172,19 +35172,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>21.44873736705384</v>
+        <v>190.5453525391276</v>
       </c>
       <c r="K8" t="n">
         <v>407.5425384040863</v>
       </c>
       <c r="L8" t="n">
-        <v>558.3972305517163</v>
+        <v>452.9426864297107</v>
       </c>
       <c r="M8" t="n">
         <v>188.5852654802098</v>
       </c>
       <c r="N8" t="n">
-        <v>259.9392557894442</v>
+        <v>196.2971847393761</v>
       </c>
       <c r="O8" t="n">
         <v>552.6880856233105</v>
@@ -35254,19 +35254,19 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>68.29072693268387</v>
+        <v>332.7559639452625</v>
       </c>
       <c r="L9" t="n">
-        <v>396.4181323974672</v>
+        <v>211.7144734559826</v>
       </c>
       <c r="M9" t="n">
         <v>647.0155045122269</v>
       </c>
       <c r="N9" t="n">
-        <v>674.2872727545556</v>
+        <v>200.663375406732</v>
       </c>
       <c r="O9" t="n">
-        <v>161.1235481502633</v>
+        <v>554.9858674269929</v>
       </c>
       <c r="P9" t="n">
         <v>428.2502711927643</v>
@@ -35409,7 +35409,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K11" t="n">
         <v>479.454324036777</v>
@@ -35488,10 +35488,10 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>500.328895167433</v>
@@ -35503,10 +35503,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>257.9506595121318</v>
+        <v>188.9220579561604</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35649,7 +35649,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L14" t="n">
         <v>632.0799921462688</v>
@@ -35725,10 +35725,10 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
         <v>500.328895167433</v>
@@ -35737,16 +35737,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>615.1440500042467</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>37.7638331807514</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35907,7 +35907,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35977,7 +35977,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36205,19 +36205,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P21" t="n">
-        <v>257.9506595121318</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902934</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36442,19 +36442,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>376.3054212373395</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,28 +36670,28 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>243.7989988974574</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,25 +36907,25 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>37.76383318075146</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367776</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,28 +37144,28 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>110.1905571410443</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37390,22 +37390,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>140.6875824748321</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,25 +37618,25 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>37.76383318075158</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193519</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,31 +37855,31 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>302.474889585677</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38098,25 +38098,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P45" t="n">
-        <v>302.474889585677</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_8_25.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_8_25.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1537587.347998017</v>
+        <v>1539347.878300802</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283185</v>
+        <v>416855.1052283181</v>
       </c>
     </row>
     <row r="9">
@@ -670,16 +670,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>310.191887013951</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>75.30729779173555</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>65.29997400339131</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -825,13 +825,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>59.7268375758684</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -873,7 +873,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -898,16 +898,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>13.784170020795</v>
@@ -943,10 +943,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>6.283679164003906</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -955,7 +955,7 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>97.34549717191138</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -1053,10 +1053,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>59.66385641544537</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -1065,10 +1065,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>25.3159054168623</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1138,7 +1138,7 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>35.30200844132176</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1147,13 +1147,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>412.9169039459368</v>
+        <v>12.9169039459368</v>
       </c>
       <c r="H8" t="n">
         <v>315.0408840752156</v>
       </c>
       <c r="I8" t="n">
-        <v>118.4960408938903</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1186,7 +1186,7 @@
         <v>154.6528871281402</v>
       </c>
       <c r="T8" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.1547862223006</v>
@@ -1195,13 +1195,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>47.47784305429595</v>
       </c>
     </row>
     <row r="9">
@@ -1290,10 +1290,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>163.9594210503732</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -1305,7 +1305,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.9207765545704</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>202.3860496764733</v>
       </c>
     </row>
     <row r="11">
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1426,7 +1426,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1533,10 +1533,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -1545,7 +1545,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1578,10 +1578,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>41.02686156550228</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1596,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>15.9345014072213</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1660,7 +1660,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1776,13 +1776,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,16 +1812,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0.2811815126418742</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1833,7 +1833,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>108.5813113004299</v>
       </c>
     </row>
     <row r="17">
@@ -1855,7 +1855,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
         <v>409.8033385187866</v>
@@ -1894,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2010,13 +2010,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0.8253826161913524</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>134.5665975534139</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2241,25 +2241,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>103.8784673763403</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>197.7996600496727</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>34.69211367164871</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -2487,13 +2487,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>35.41770597126623</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2526,13 +2526,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2572,7 +2572,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2712,25 +2712,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>29.95900124023845</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>34.22340015155905</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2955,19 +2955,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,16 +2997,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>72.26558381699921</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3186,25 +3186,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>107.387005480723</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3255,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3280,7 +3280,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.803338518787</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3322,7 +3322,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3426,22 +3426,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>104.8913819999787</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>9.146142788179931</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3505,7 +3505,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710079</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -3666,10 +3666,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3711,13 +3711,13 @@
         <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>114.9322208041654</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3729,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>161.355549430153</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3742,7 +3742,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710079</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -3793,7 +3793,7 @@
         <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576173</v>
       </c>
       <c r="U41" t="n">
         <v>250.9057009881286</v>
@@ -3903,19 +3903,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>83.06560892428617</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3954,13 +3954,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>281.6778446725264</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -4140,19 +4140,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>108.2950343703271</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4185,7 +4185,7 @@
         <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>134.5665975534142</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4318,31 +4318,31 @@
         <v>1112.426648284105</v>
       </c>
       <c r="F2" t="n">
-        <v>799.1015098861748</v>
+        <v>701.4407434944976</v>
       </c>
       <c r="G2" t="n">
-        <v>381.1377017843616</v>
+        <v>283.4769353926845</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4400,34 +4400,34 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4464,19 +4464,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>728.1289842064342</v>
+        <v>372.9958041606071</v>
       </c>
       <c r="C4" t="n">
-        <v>559.1928012785273</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="D4" t="n">
-        <v>409.0761618661916</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>261.1630682837985</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>114.2731207858881</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
         <v>53.94298182036445</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064342</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064342</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064342</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="Y4" t="n">
-        <v>728.1289842064342</v>
+        <v>438.9553738610024</v>
       </c>
     </row>
     <row r="5">
@@ -4543,16 +4543,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1187.828354776384</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="C5" t="n">
-        <v>818.8658378359718</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="D5" t="n">
-        <v>460.6001392292213</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E5" t="n">
-        <v>74.81188663097703</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F5" t="n">
         <v>67.86638588177355</v>
@@ -4567,19 +4567,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2690.801940347511</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2690.801940347511</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>2690.801940347511</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V5" t="n">
-        <v>2690.801940347511</v>
+        <v>2367.614128840753</v>
       </c>
       <c r="W5" t="n">
-        <v>2338.033285077397</v>
+        <v>2014.845473570639</v>
       </c>
       <c r="X5" t="n">
-        <v>1964.567526816317</v>
+        <v>1641.379715309559</v>
       </c>
       <c r="Y5" t="n">
-        <v>1574.428194840505</v>
+        <v>1251.240383333747</v>
       </c>
     </row>
     <row r="6">
@@ -4622,40 +4622,40 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>266.206002764199</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
         <v>1748.695370517453</v>
@@ -4667,22 +4667,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4701,19 +4701,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>728.1289842064342</v>
+        <v>520.9088977430002</v>
       </c>
       <c r="C7" t="n">
-        <v>667.8624625746712</v>
+        <v>351.9727148150933</v>
       </c>
       <c r="D7" t="n">
-        <v>517.7458231623355</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="E7" t="n">
-        <v>369.8327295799424</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
         <v>53.94298182036445</v>
@@ -4746,31 +4746,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>702.55736257324</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>702.55736257324</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>702.55736257324</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>702.55736257324</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>702.55736257324</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064342</v>
+        <v>702.55736257324</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064342</v>
+        <v>702.55736257324</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064342</v>
+        <v>702.55736257324</v>
       </c>
       <c r="Y7" t="n">
-        <v>728.1289842064342</v>
+        <v>702.55736257324</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1741.379601184342</v>
+        <v>1181.987632158875</v>
       </c>
       <c r="C8" t="n">
-        <v>1741.379601184342</v>
+        <v>1181.987632158875</v>
       </c>
       <c r="D8" t="n">
-        <v>1705.721006799168</v>
+        <v>1181.987632158875</v>
       </c>
       <c r="E8" t="n">
-        <v>1319.932754200924</v>
+        <v>796.199379560631</v>
       </c>
       <c r="F8" t="n">
-        <v>908.9468494113166</v>
+        <v>385.2134747710234</v>
       </c>
       <c r="G8" t="n">
-        <v>491.8590676477442</v>
+        <v>372.1660970478549</v>
       </c>
       <c r="H8" t="n">
-        <v>173.6359524202537</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
@@ -4834,22 +4834,22 @@
         <v>2540.93405351505</v>
       </c>
       <c r="T8" t="n">
-        <v>2326.134191782762</v>
+        <v>2540.93405351505</v>
       </c>
       <c r="U8" t="n">
-        <v>2072.442488527913</v>
+        <v>2287.242350260201</v>
       </c>
       <c r="V8" t="n">
-        <v>1741.379601184342</v>
+        <v>1956.179462916631</v>
       </c>
       <c r="W8" t="n">
-        <v>1741.379601184342</v>
+        <v>1603.410807646517</v>
       </c>
       <c r="X8" t="n">
-        <v>1741.379601184342</v>
+        <v>1229.945049385437</v>
       </c>
       <c r="Y8" t="n">
-        <v>1741.379601184342</v>
+        <v>1181.987632158875</v>
       </c>
     </row>
     <row r="9">
@@ -4889,7 +4889,7 @@
         <v>383.3713861261743</v>
       </c>
       <c r="L9" t="n">
-        <v>592.9687148475971</v>
+        <v>887.7329259922928</v>
       </c>
       <c r="M9" t="n">
         <v>1233.514064314702</v>
@@ -4938,19 +4938,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>667.4695073176202</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="C10" t="n">
-        <v>667.4695073176202</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D10" t="n">
-        <v>517.3528679052845</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E10" t="n">
-        <v>369.4397743228914</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F10" t="n">
-        <v>222.5498268249811</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
         <v>53.94298182036445</v>
@@ -5007,7 +5007,7 @@
         <v>1053.877663279709</v>
       </c>
       <c r="Y10" t="n">
-        <v>833.085084136179</v>
+        <v>849.4473100711502</v>
       </c>
     </row>
     <row r="11">
@@ -5041,10 +5041,10 @@
         <v>95.34095638192595</v>
       </c>
       <c r="J11" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5056,7 +5056,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
@@ -5077,13 +5077,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5120,22 +5120,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L12" t="n">
-        <v>589.1422692637306</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M12" t="n">
-        <v>1186.520756890282</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N12" t="n">
-        <v>1814.118720444889</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O12" t="n">
-        <v>2366.028450684176</v>
+        <v>2515.675093211831</v>
       </c>
       <c r="P12" t="n">
         <v>2553.061288060775</v>
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>718.5507239167111</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C13" t="n">
-        <v>549.6145409888043</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D13" t="n">
-        <v>549.6145409888043</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E13" t="n">
-        <v>549.6145409888043</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H13" t="n">
         <v>93.81666304797187</v>
@@ -5226,25 +5226,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>2338.476105524075</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>2049.400878868273</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1794.716390662386</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1505.299220625425</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138411</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y13" t="n">
-        <v>900.1991887469509</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="14">
@@ -5254,34 +5254,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5311,19 +5311,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5357,25 +5357,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>427.7414352191925</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L15" t="n">
-        <v>923.0670414349511</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M15" t="n">
-        <v>1520.445529061503</v>
+        <v>840.8417932021785</v>
       </c>
       <c r="N15" t="n">
-        <v>2129.438138565707</v>
+        <v>1468.439756756785</v>
       </c>
       <c r="O15" t="n">
-        <v>2129.438138565707</v>
+        <v>2020.349486996072</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2443.97263649114</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>869.6905094135296</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C16" t="n">
-        <v>700.7543264856228</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D16" t="n">
-        <v>550.637687073287</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E16" t="n">
-        <v>402.7245934908939</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
         <v>93.81666304797187</v>
@@ -5460,28 +5460,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.679061850319</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2263.824227505223</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.222762528164</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U16" t="n">
-        <v>2044.222762528164</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V16" t="n">
-        <v>1789.538274322277</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W16" t="n">
-        <v>1500.121104285317</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X16" t="n">
-        <v>1272.131553387299</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y16" t="n">
-        <v>1051.338974243769</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="17">
@@ -5497,10 +5497,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
         <v>793.7736536168611</v>
@@ -5512,22 +5512,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
         <v>3640.422291068009</v>
@@ -5551,13 +5551,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5591,22 +5591,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516142</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L18" t="n">
-        <v>1074.481071167373</v>
+        <v>924.8344286397185</v>
       </c>
       <c r="M18" t="n">
-        <v>1671.859558793925</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N18" t="n">
-        <v>2299.457522348532</v>
+        <v>2149.810879820877</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5649,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>696.7084350851671</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C19" t="n">
-        <v>527.7722521572603</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="D19" t="n">
-        <v>377.6556127449245</v>
+        <v>261.8464821474266</v>
       </c>
       <c r="E19" t="n">
-        <v>229.7425191625314</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F19" t="n">
-        <v>229.7425191625314</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G19" t="n">
         <v>93.81666304797187</v>
@@ -5673,52 +5673,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S19" t="n">
-        <v>2379.917379832663</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>2160.315914855604</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U19" t="n">
-        <v>1871.240688199802</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V19" t="n">
-        <v>1616.556199993915</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W19" t="n">
-        <v>1327.139029956954</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X19" t="n">
-        <v>1099.149479058937</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y19" t="n">
-        <v>878.3568999154069</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="20">
@@ -5728,52 +5728,52 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5785,19 +5785,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="21">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>783.5579673960132</v>
       </c>
       <c r="C22" t="n">
-        <v>513.8536007400712</v>
+        <v>614.6217844681063</v>
       </c>
       <c r="D22" t="n">
-        <v>408.925855915485</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="E22" t="n">
-        <v>261.0127623330919</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F22" t="n">
-        <v>261.0127623330919</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2247.16544716645</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1958.090220510648</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1703.405732304761</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1413.9885622678</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>1185.999011369783</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>965.2064322262529</v>
       </c>
     </row>
     <row r="23">
@@ -5977,34 +5977,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6080,7 +6080,7 @@
         <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>2297.690135143765</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>763.7541388327643</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C25" t="n">
-        <v>594.8179559048574</v>
+        <v>847.644273983533</v>
       </c>
       <c r="D25" t="n">
-        <v>444.7013164925216</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E25" t="n">
-        <v>296.7882229101285</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F25" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6147,52 +6147,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S25" t="n">
-        <v>2446.96308358026</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T25" t="n">
-        <v>2227.361618603201</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U25" t="n">
-        <v>1938.286391947399</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="V25" t="n">
-        <v>1683.601903741512</v>
+        <v>1789.822296052219</v>
       </c>
       <c r="W25" t="n">
-        <v>1394.184733704551</v>
+        <v>1500.405126015259</v>
       </c>
       <c r="X25" t="n">
-        <v>1166.195182806534</v>
+        <v>1272.415575117241</v>
       </c>
       <c r="Y25" t="n">
-        <v>945.402603663004</v>
+        <v>1051.622995973711</v>
       </c>
     </row>
     <row r="26">
@@ -6208,28 +6208,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6238,16 +6238,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6302,13 +6302,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L27" t="n">
         <v>1074.481071167373</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>762.5477693179085</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C28" t="n">
-        <v>593.6115863900017</v>
+        <v>550.637687073287</v>
       </c>
       <c r="D28" t="n">
-        <v>443.4949469776659</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E28" t="n">
-        <v>295.5818533952728</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F28" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6384,31 +6384,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S28" t="n">
         <v>2264.108249235165</v>
@@ -6426,10 +6426,10 @@
         <v>1211.329899359456</v>
       </c>
       <c r="X28" t="n">
-        <v>983.3403484614387</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y28" t="n">
-        <v>762.5477693179085</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="29">
@@ -6451,34 +6451,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H29" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6539,13 +6539,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L30" t="n">
         <v>1074.481071167373</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1016.58045691144</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C31" t="n">
-        <v>847.6442739835331</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D31" t="n">
-        <v>697.5276345711974</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E31" t="n">
-        <v>549.6145409888043</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6621,52 +6621,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>2191.112710026075</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1936.428221820188</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>1647.011051783227</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>1419.02150088521</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y31" t="n">
-        <v>1198.22892174168</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="32">
@@ -6688,22 +6688,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>874.8686257536381</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C34" t="n">
-        <v>705.9324428257312</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D34" t="n">
-        <v>555.8158034133954</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E34" t="n">
-        <v>407.9027098310023</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F34" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6882,28 +6882,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W34" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X34" t="n">
-        <v>983.3403484614391</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y34" t="n">
-        <v>983.3403484614391</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="35">
@@ -6916,7 +6916,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004713</v>
@@ -6925,7 +6925,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -6934,19 +6934,19 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
         <v>2950.898526355938</v>
@@ -6955,7 +6955,7 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
         <v>4562.265728852256</v>
@@ -6970,7 +6970,7 @@
         <v>4405.252601474785</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
         <v>3820.749612123003</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908938</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908938</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908938</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797189</v>
@@ -7119,28 +7119,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y37" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="38">
@@ -7162,22 +7162,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111716</v>
+        <v>378.192580311171</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075804</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7186,10 +7186,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694708</v>
@@ -7198,25 +7198,25 @@
         <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7238,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7247,10 +7247,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J39" t="n">
         <v>245.2306927803938</v>
@@ -7308,13 +7308,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>571.6607764188008</v>
+        <v>869.6905094135296</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908938</v>
+        <v>700.7543264856228</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908938</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E40" t="n">
         <v>402.7245934908938</v>
@@ -7326,10 +7326,10 @@
         <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782958</v>
@@ -7359,25 +7359,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487568</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510509</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854707</v>
+        <v>2044.222762528164</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.70136564882</v>
+        <v>1789.538274322277</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611859</v>
+        <v>1500.121104285317</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138415</v>
+        <v>1272.131553387299</v>
       </c>
       <c r="Y40" t="n">
-        <v>753.3092412490405</v>
+        <v>1051.338974243769</v>
       </c>
     </row>
     <row r="41">
@@ -7408,28 +7408,28 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q41" t="n">
         <v>4562.265728852256</v>
@@ -7441,10 +7441,10 @@
         <v>4606.285157492579</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
         <v>3820.749612123003</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>874.8686257536381</v>
+        <v>513.8536007400758</v>
       </c>
       <c r="C43" t="n">
-        <v>705.9324428257312</v>
+        <v>344.9174178121689</v>
       </c>
       <c r="D43" t="n">
-        <v>555.8158034133954</v>
+        <v>344.9174178121689</v>
       </c>
       <c r="E43" t="n">
-        <v>407.9027098310023</v>
+        <v>344.9174178121689</v>
       </c>
       <c r="F43" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121689</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797189</v>
+        <v>177.7213185270488</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797189</v>
@@ -7572,49 +7572,49 @@
         <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038385</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797788</v>
       </c>
       <c r="M43" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910813</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570822</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279807</v>
       </c>
       <c r="P43" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853365</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580265</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832667</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487572</v>
       </c>
       <c r="T43" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510513</v>
       </c>
       <c r="U43" t="n">
-        <v>2044.506784258106</v>
+        <v>1688.385853854711</v>
       </c>
       <c r="V43" t="n">
-        <v>1789.822296052219</v>
+        <v>1433.701365648824</v>
       </c>
       <c r="W43" t="n">
-        <v>1505.299220625425</v>
+        <v>1144.284195611863</v>
       </c>
       <c r="X43" t="n">
-        <v>1277.309669727408</v>
+        <v>916.2946447138456</v>
       </c>
       <c r="Y43" t="n">
-        <v>1056.517090583878</v>
+        <v>695.5020655703155</v>
       </c>
     </row>
     <row r="44">
@@ -7724,25 +7724,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1670.092171589158</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="N45" t="n">
-        <v>2297.690135143765</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O45" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P45" t="n">
         <v>2553.061288060775</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400717</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121648</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121648</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121648</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121648</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7833,25 +7833,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487568</v>
+        <v>2243.991523718104</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510509</v>
+        <v>2024.390058741045</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854707</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.70136564882</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611859</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138415</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703114</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8072,13 +8072,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
-        <v>393.8623192767295</v>
+        <v>350.4438349360584</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747121</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>221.0467526719079</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8306,7 +8306,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>479.3423743435536</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8537,10 +8537,10 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>73.09871788457451</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>465.7050637499999</v>
+        <v>167.9634363311152</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -9163,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>-1.477928890381008e-12</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -9646,7 +9646,7 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>-1.591615728102624e-12</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -10129,7 +10129,7 @@
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>-1.13686837721616e-12</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -10357,7 +10357,7 @@
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>-1.127400889475308e-12</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
@@ -23421,10 +23421,10 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23433,7 +23433,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>81.26583631856553</v>
@@ -23466,10 +23466,10 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>176.378588761786</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>202.6501519448735</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23664,13 +23664,13 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856553</v>
@@ -23700,16 +23700,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.09406519747981</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>110.0033420516649</v>
       </c>
     </row>
     <row r="17">
@@ -23898,19 +23898,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>145.6085800303778</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>30.95754073885493</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24129,25 +24129,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>44.73700564187206</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>19.6057902776156</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>145.1398665102886</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24375,16 +24375,16 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>110.003342051665</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,16 +24411,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24600,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>137.2878198583894</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>111.1976478713722</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24843,22 +24843,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,16 +24885,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>213.9188905722449</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25074,25 +25074,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>72.44497470121425</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856552</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25314,22 +25314,22 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>41.54258064659051</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856552</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25554,10 +25554,10 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25599,13 +25599,13 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>171.2522535850787</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>57.22910392194177</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25791,19 +25791,19 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392193769</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856552</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25842,13 +25842,13 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>4.84515366406464</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26028,19 +26028,19 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>57.22910392194174</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856552</v>
@@ -26073,7 +26073,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>46.45968844823039</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>912919.4763713556</v>
+        <v>912919.4763713557</v>
       </c>
     </row>
     <row r="6">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>912919.4763713557</v>
+        <v>912919.4763713556</v>
       </c>
     </row>
     <row r="12">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>912919.4763713556</v>
+        <v>912919.4763713557</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>912919.4763713557</v>
+        <v>912919.4763713558</v>
       </c>
     </row>
     <row r="16">
@@ -26313,25 +26313,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>513151.1061651768</v>
+        <v>513151.106165177</v>
       </c>
       <c r="C2" t="n">
-        <v>513151.1061651768</v>
+        <v>513151.1061651772</v>
       </c>
       <c r="D2" t="n">
         <v>513151.106165177</v>
       </c>
       <c r="E2" t="n">
-        <v>504466.6248062538</v>
+        <v>504466.6248062536</v>
       </c>
       <c r="F2" t="n">
-        <v>504466.6248062536</v>
+        <v>504466.6248062537</v>
       </c>
       <c r="G2" t="n">
-        <v>504466.6248062536</v>
+        <v>504466.6248062537</v>
       </c>
       <c r="H2" t="n">
-        <v>504466.6248062536</v>
+        <v>504466.6248062537</v>
       </c>
       <c r="I2" t="n">
         <v>504466.6248062537</v>
@@ -26340,22 +26340,22 @@
         <v>504466.6248062536</v>
       </c>
       <c r="K2" t="n">
+        <v>504466.6248062536</v>
+      </c>
+      <c r="L2" t="n">
         <v>504466.6248062538</v>
       </c>
-      <c r="L2" t="n">
+      <c r="M2" t="n">
         <v>504466.6248062536</v>
       </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
+        <v>504466.6248062536</v>
+      </c>
+      <c r="O2" t="n">
         <v>504466.6248062538</v>
       </c>
-      <c r="N2" t="n">
-        <v>504466.6248062537</v>
-      </c>
-      <c r="O2" t="n">
-        <v>504466.6248062537</v>
-      </c>
       <c r="P2" t="n">
-        <v>504466.6248062537</v>
+        <v>504466.6248062536</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26380,7 +26380,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26395,7 +26395,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>1.62584001373034e-10</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>124208.5107080586</v>
@@ -26429,25 +26429,25 @@
         <v>5677.536566682745</v>
       </c>
       <c r="F4" t="n">
+        <v>5677.536566682745</v>
+      </c>
+      <c r="G4" t="n">
+        <v>5677.536566682721</v>
+      </c>
+      <c r="H4" t="n">
         <v>5677.536566682744</v>
       </c>
-      <c r="G4" t="n">
-        <v>5677.536566682745</v>
-      </c>
-      <c r="H4" t="n">
-        <v>5677.536566682745</v>
-      </c>
       <c r="I4" t="n">
-        <v>5677.536566682745</v>
+        <v>5677.536566682718</v>
       </c>
       <c r="J4" t="n">
-        <v>5677.536566682745</v>
+        <v>5677.536566682744</v>
       </c>
       <c r="K4" t="n">
-        <v>5677.536566682745</v>
+        <v>5677.536566682726</v>
       </c>
       <c r="L4" t="n">
-        <v>5677.536566682745</v>
+        <v>5677.536566682719</v>
       </c>
       <c r="M4" t="n">
         <v>5677.536566682745</v>
@@ -26524,46 +26524,46 @@
         <v>-369598.2665758104</v>
       </c>
       <c r="C6" t="n">
-        <v>220369.6126387341</v>
+        <v>220369.6126387344</v>
       </c>
       <c r="D6" t="n">
         <v>64565.80654493926</v>
       </c>
       <c r="E6" t="n">
-        <v>-373733.5122194994</v>
+        <v>-373420.8708905783</v>
       </c>
       <c r="F6" t="n">
-        <v>397319.1791613068</v>
+        <v>397631.8204902281</v>
       </c>
       <c r="G6" t="n">
-        <v>397319.1791613068</v>
+        <v>397631.820490228</v>
       </c>
       <c r="H6" t="n">
-        <v>397319.1791613068</v>
+        <v>397631.8204902281</v>
       </c>
       <c r="I6" t="n">
-        <v>397319.1791613069</v>
+        <v>397631.8204902281</v>
       </c>
       <c r="J6" t="n">
-        <v>220895.9599687139</v>
+        <v>221208.6012976351</v>
       </c>
       <c r="K6" t="n">
-        <v>397319.179161307</v>
+        <v>397631.8204902281</v>
       </c>
       <c r="L6" t="n">
-        <v>397319.1791613066</v>
+        <v>397631.8204902282</v>
       </c>
       <c r="M6" t="n">
-        <v>273110.6684532484</v>
+        <v>273423.3097821695</v>
       </c>
       <c r="N6" t="n">
-        <v>397319.1791613069</v>
+        <v>397631.820490228</v>
       </c>
       <c r="O6" t="n">
-        <v>397319.1791613069</v>
+        <v>397631.8204902282</v>
       </c>
       <c r="P6" t="n">
-        <v>397319.1791613069</v>
+        <v>397631.820490228</v>
       </c>
     </row>
   </sheetData>
@@ -26737,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
@@ -26825,7 +26825,7 @@
         <v>1172.708288099649</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099649</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26974,7 +26974,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26989,7 +26989,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -27390,16 +27390,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>96.6841587277604</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>248.6154749726216</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>114.532006178546</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27545,13 +27545,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>107.5829646831825</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
@@ -27560,7 +27560,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27593,7 +27593,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27618,16 +27618,16 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27663,10 +27663,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>168.1320336449676</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
@@ -27675,7 +27675,7 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>230.4067612982235</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27773,10 +27773,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>107.5829646831825</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27785,10 +27785,10 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
@@ -27818,7 +27818,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>3.806844538052008</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
@@ -27858,7 +27858,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>319.3810331793612</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27867,13 +27867,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>118.4960408938903</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27906,7 +27906,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -27915,13 +27915,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>338.7600956017577</v>
       </c>
     </row>
     <row r="9">
@@ -28010,10 +28010,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>15.87255913156409</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28025,7 +28025,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H10" t="n">
         <v>152.7120966692326</v>
@@ -28079,7 +28079,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>16.19860367562146</v>
       </c>
     </row>
     <row r="11">
@@ -30513,7 +30513,7 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>-7.863403763104596e-13</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -30644,7 +30644,7 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>4.147674796210292e-12</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31840,7 +31840,7 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
         <v>137.841438974359</v>
@@ -31858,7 +31858,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>322.8964653704906</v>
+        <v>171.7382405950817</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -32077,28 +32077,28 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>746.4857620875799</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>250.1723312270667</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,31 +32305,31 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>398.7616643558013</v>
+        <v>549.9198891312099</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
@@ -32554,16 +32554,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
         <v>400.5469039565762</v>
@@ -32578,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
@@ -32791,19 +32791,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O24" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -32815,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
         <v>101.3076196007749</v>
@@ -33028,16 +33028,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
         <v>398.7616643558013</v>
@@ -33052,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
@@ -33265,16 +33265,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
         <v>398.7616643558013</v>
@@ -33289,13 +33289,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -34444,7 +34444,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
@@ -34456,16 +34456,16 @@
         <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>650.2626573149951</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34789,16 +34789,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245898</v>
+        <v>401.1632560839187</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35014,10 +35014,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
-        <v>214.4070918624591</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35026,7 +35026,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
@@ -35257,10 +35257,10 @@
         <v>332.7559639452625</v>
       </c>
       <c r="L9" t="n">
-        <v>211.7144734559826</v>
+        <v>509.4561008748672</v>
       </c>
       <c r="M9" t="n">
-        <v>647.0155045122269</v>
+        <v>349.2738770933423</v>
       </c>
       <c r="N9" t="n">
         <v>200.663375406732</v>
@@ -35409,7 +35409,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
         <v>479.454324036777</v>
@@ -35433,7 +35433,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,7 +35488,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -35506,7 +35506,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>188.9220579561604</v>
+        <v>37.7638331807514</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35649,7 +35649,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367776</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
         <v>632.0799921462688</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>615.1440500042467</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>110.1905571410452</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396405</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,25 +35959,25 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>256.1654199113569</v>
+        <v>407.3236446867654</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36205,13 +36205,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
         <v>257.9506595121318</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902934</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36442,16 +36442,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O24" t="n">
-        <v>257.9506595121318</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36679,13 +36679,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
         <v>256.1654199113569</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683802</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36916,13 +36916,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
         <v>256.1654199113569</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37077,7 +37077,7 @@
         <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902934</v>
       </c>
       <c r="N32" t="n">
         <v>751.8584478193518</v>
@@ -37329,7 +37329,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37542,7 +37542,7 @@
         <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396415</v>
       </c>
       <c r="K38" t="n">
         <v>479.4543240367771</v>
@@ -37566,7 +37566,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37940,7 +37940,7 @@
         <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096391</v>
       </c>
       <c r="L43" t="n">
         <v>394.3420143191315</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38104,16 +38104,16 @@
         <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>508.1286233929767</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>257.9506595121318</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
